--- a/SourceDataTables/Fig2a.xlsx
+++ b/SourceDataTables/Fig2a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +90,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/Fig2a.xlsx
+++ b/SourceDataTables/Fig2a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +75,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +94,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/Fig2a.xlsx
+++ b/SourceDataTables/Fig2a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,34 +49,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,10 +74,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -106,7 +86,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.64331783566176848</v>
+        <v>0.64599397750024379</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +94,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.87780846909558352</v>
+        <v>0.88087644679925559</v>
       </c>
     </row>
     <row r="4">
@@ -122,7 +102,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.055564804759683846</v>
+        <v>0.058049987587385686</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +110,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.70420222396320697</v>
+        <v>0.7078750132155901</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +118,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.056443916360295103</v>
+        <v>0.058105486773939057</v>
       </c>
     </row>
     <row r="7">
@@ -146,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.56699875587445958</v>
+        <v>0.56930067798382811</v>
       </c>
     </row>
     <row r="8">
@@ -154,7 +134,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.82528224099970848</v>
+        <v>0.82803908089042744</v>
       </c>
     </row>
     <row r="9">
@@ -162,7 +142,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9950073436885194</v>
+        <v>0.99824097818335278</v>
       </c>
     </row>
     <row r="10">
@@ -170,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.98593948735310877</v>
+        <v>0.98945098538590903</v>
       </c>
     </row>
     <row r="11">
@@ -178,7 +158,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.98736855510432453</v>
+        <v>0.99085346298254484</v>
       </c>
     </row>
     <row r="12">
@@ -186,7 +166,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.60564652473211222</v>
+        <v>0.607023765337941</v>
       </c>
     </row>
     <row r="13">
@@ -194,7 +174,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.8534421118396619</v>
+        <v>0.85498846901691949</v>
       </c>
     </row>
     <row r="14">
@@ -202,7 +182,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.0414265927487982</v>
+        <v>1.0433988752198413</v>
       </c>
     </row>
     <row r="15">
@@ -210,7 +190,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.1791335776833465</v>
+        <v>1.1816165273369057</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +198,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.2172583886817938</v>
+        <v>1.2202013896405342</v>
       </c>
     </row>
     <row r="17">
@@ -226,7 +206,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.2307195567997551</v>
+        <v>1.23365859116549</v>
       </c>
     </row>
     <row r="18">
@@ -234,7 +214,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.1347743932100511</v>
+        <v>1.1379723554616616</v>
       </c>
     </row>
     <row r="19">
@@ -242,7 +222,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.96924336712099846</v>
+        <v>0.97234720553645437</v>
       </c>
     </row>
     <row r="20">
@@ -250,7 +230,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.0475859956609308</v>
+        <v>1.0483562390405543</v>
       </c>
     </row>
     <row r="21">
@@ -258,7 +238,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.1683629952647419</v>
+        <v>1.1692604401802111</v>
       </c>
     </row>
     <row r="22">
@@ -266,7 +246,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.2789836829680981</v>
+        <v>1.2803567901616826</v>
       </c>
     </row>
     <row r="23">
@@ -274,7 +254,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.3344716293631511</v>
+        <v>1.3362496226708458</v>
       </c>
     </row>
     <row r="24">
@@ -282,7 +262,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.3389021105025578</v>
+        <v>1.3406476635095246</v>
       </c>
     </row>
     <row r="25">
@@ -290,7 +270,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.2885537828157738</v>
+        <v>1.2908920795870207</v>
       </c>
     </row>
     <row r="26">
@@ -298,7 +278,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.1934116759998694</v>
+        <v>1.1958226739711071</v>
       </c>
     </row>
     <row r="27">
@@ -306,7 +286,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.0378062405845825</v>
+        <v>1.0403957210578036</v>
       </c>
     </row>
     <row r="28">
@@ -314,7 +294,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.2013258001793905</v>
+        <v>1.2014520731376004</v>
       </c>
     </row>
     <row r="29">
@@ -322,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.2706035235385014</v>
+        <v>1.2709993154414057</v>
       </c>
     </row>
     <row r="30">
@@ -330,7 +310,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.3141100763098987</v>
+        <v>1.3148933652302641</v>
       </c>
     </row>
     <row r="31">
@@ -338,7 +318,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.314159748621093</v>
+        <v>1.3149185587503895</v>
       </c>
     </row>
     <row r="32">
@@ -346,7 +326,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.3443473558010568</v>
+        <v>1.345495866486814</v>
       </c>
     </row>
     <row r="33">
@@ -354,7 +334,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.3036229450274546</v>
+        <v>1.3051954720071406</v>
       </c>
     </row>
     <row r="34">
@@ -362,7 +342,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.2080348405598056</v>
+        <v>1.2096899154758836</v>
       </c>
     </row>
     <row r="35">
@@ -370,7 +350,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.1436426828643171</v>
+        <v>1.1429394031106015</v>
       </c>
     </row>
     <row r="36">
@@ -378,7 +358,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.1965567627756939</v>
+        <v>1.196049672109543</v>
       </c>
     </row>
     <row r="37">
@@ -386,7 +366,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.2092473769773759</v>
+        <v>1.20890172232455</v>
       </c>
     </row>
     <row r="38">
@@ -394,7 +374,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.2180376384197555</v>
+        <v>1.2176964654837295</v>
       </c>
     </row>
     <row r="39">
@@ -402,7 +382,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.2520353932371</v>
+        <v>1.251986731569575</v>
       </c>
     </row>
     <row r="40">
@@ -410,7 +390,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.2759027427045679</v>
+        <v>1.2762190356074017</v>
       </c>
     </row>
     <row r="41">
@@ -418,7 +398,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.2319477669847396</v>
+        <v>1.2326466875633639</v>
       </c>
     </row>
     <row r="42">
@@ -426,7 +406,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.1517229983587862</v>
+        <v>1.1508357832638818</v>
       </c>
     </row>
     <row r="43">
@@ -434,7 +414,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.1795787929806714</v>
+        <v>1.1785923970667982</v>
       </c>
     </row>
     <row r="44">
@@ -442,7 +422,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.1770541300866921</v>
+        <v>1.1760579314251323</v>
       </c>
     </row>
     <row r="45">
@@ -450,7 +430,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.1792693798504463</v>
+        <v>1.1784811037554888</v>
       </c>
     </row>
     <row r="46">
@@ -458,7 +438,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.1988406803641221</v>
+        <v>1.1982196579610143</v>
       </c>
     </row>
     <row r="47">
@@ -466,7 +446,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.1566718818127799</v>
+        <v>1.1556022207931973</v>
       </c>
     </row>
     <row r="48">
@@ -474,7 +454,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.1524488791989171</v>
+        <v>1.1513737365010099</v>
       </c>
     </row>
     <row r="49">
@@ -482,7 +462,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.2732830293871723</v>
+        <v>0.27621668568651969</v>
       </c>
     </row>
     <row r="50">
@@ -490,7 +470,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.34059172540157512</v>
+        <v>0.34373229343430955</v>
       </c>
     </row>
     <row r="51">
@@ -498,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.4401275702432334</v>
+        <v>0.44366072926024885</v>
       </c>
     </row>
     <row r="52">
@@ -506,7 +486,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.41026775863554288</v>
+        <v>0.41403354434764633</v>
       </c>
     </row>
     <row r="53">
@@ -514,7 +494,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.15572404315215532</v>
+        <v>-0.15396169529529355</v>
       </c>
     </row>
     <row r="54">
@@ -522,7 +502,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.36322316758724504</v>
+        <v>0.36537763547944424</v>
       </c>
     </row>
     <row r="55">
@@ -530,7 +510,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.58004028988274792</v>
+        <v>0.58247213938718789</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.72760261349557265</v>
+        <v>0.73061925358411017</v>
       </c>
     </row>
     <row r="57">
@@ -546,7 +526,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.7185029040881652</v>
+        <v>0.72195087211399589</v>
       </c>
     </row>
     <row r="58">
@@ -554,7 +534,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.71376057518969294</v>
+        <v>0.71717020245921947</v>
       </c>
     </row>
     <row r="59">
@@ -562,7 +542,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.58920278056302888</v>
+        <v>0.59278224829948911</v>
       </c>
     </row>
     <row r="60">
@@ -570,7 +550,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.32526490803255098</v>
+        <v>0.32637861341097341</v>
       </c>
     </row>
     <row r="61">
@@ -578,7 +558,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.54682939128943664</v>
+        <v>0.54806042424331003</v>
       </c>
     </row>
     <row r="62">
@@ -586,7 +566,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.72453240788768847</v>
+        <v>0.72595193016931714</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +574,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.87730243720312495</v>
+        <v>0.87936745115724479</v>
       </c>
     </row>
     <row r="64">
@@ -602,7 +582,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.92762729891172557</v>
+        <v>0.93030786273083532</v>
       </c>
     </row>
     <row r="65">
@@ -610,7 +590,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.93489575070242503</v>
+        <v>0.93756620154059789</v>
       </c>
     </row>
     <row r="66">
@@ -618,7 +598,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.91483480703123299</v>
+        <v>0.91800716523617343</v>
       </c>
     </row>
     <row r="67">
@@ -626,7 +606,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.779959424564726</v>
+        <v>0.78302723814131703</v>
       </c>
     </row>
     <row r="68">
@@ -634,7 +614,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.55148670651429044</v>
+        <v>0.55192075527768292</v>
       </c>
     </row>
     <row r="69">
@@ -642,7 +622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.69001337211008817</v>
+        <v>0.6903235743332482</v>
       </c>
     </row>
     <row r="70">
@@ -650,7 +630,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.84115761837866543</v>
+        <v>0.84177513137833726</v>
       </c>
     </row>
     <row r="71">
@@ -658,7 +638,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.96707404203538883</v>
+        <v>0.96820459117888891</v>
       </c>
     </row>
     <row r="72">
@@ -666,7 +646,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.0498218624627906</v>
+        <v>1.051533456085689</v>
       </c>
     </row>
     <row r="73">
@@ -674,7 +654,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.0378622560336037</v>
+        <v>1.0395454130088262</v>
       </c>
     </row>
     <row r="74">
@@ -682,7 +662,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.0328420491989174</v>
+        <v>1.0348676482354617</v>
       </c>
     </row>
     <row r="75">
@@ -690,7 +670,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.99682718518827429</v>
+        <v>0.99915784232582505</v>
       </c>
     </row>
     <row r="76">
@@ -698,7 +678,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.91321557642415474</v>
+        <v>0.91580499453096498</v>
       </c>
     </row>
     <row r="77">
@@ -706,7 +686,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.77465667199093358</v>
+        <v>0.77739194688212643</v>
       </c>
     </row>
     <row r="78">
@@ -714,7 +694,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.82110023055724735</v>
+        <v>0.82057484622086163</v>
       </c>
     </row>
     <row r="79">
@@ -722,7 +702,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.92000575060823842</v>
+        <v>0.91991519080651696</v>
       </c>
     </row>
     <row r="80">
@@ -730,7 +710,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.97446070621768832</v>
+        <v>0.9746353323106085</v>
       </c>
     </row>
     <row r="81">
@@ -738,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1.0216857338963221</v>
+        <v>1.0220539029733138</v>
       </c>
     </row>
     <row r="82">
@@ -746,7 +726,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1.03193108003343</v>
+        <v>1.0323221526201316</v>
       </c>
     </row>
     <row r="83">
@@ -754,7 +734,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.74247190053714152</v>
+        <v>0.74316605592531537</v>
       </c>
     </row>
     <row r="84">
@@ -762,7 +742,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.1247694835519755</v>
+        <v>1.1262976872840931</v>
       </c>
     </row>
     <row r="85">
@@ -770,7 +750,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.1036018354615833</v>
+        <v>1.1053600863506094</v>
       </c>
     </row>
     <row r="86">
@@ -778,7 +758,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1.0287003327284812</v>
+        <v>1.0309179516516249</v>
       </c>
     </row>
     <row r="87">
@@ -786,7 +766,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.86679616936861414</v>
+        <v>0.86574026573175467</v>
       </c>
     </row>
     <row r="88">
@@ -794,7 +774,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.92586512744767657</v>
+        <v>0.92508905687787157</v>
       </c>
     </row>
     <row r="89">
@@ -802,7 +782,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.98398290707922365</v>
+        <v>0.98324326120899042</v>
       </c>
     </row>
     <row r="90">
@@ -810,7 +790,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.99725652393302977</v>
+        <v>0.99685464762948328</v>
       </c>
     </row>
     <row r="91">
@@ -818,7 +798,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.0167502633039984</v>
+        <v>1.0163829521061571</v>
       </c>
     </row>
     <row r="92">
@@ -826,7 +806,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1.07918854370911</v>
+        <v>1.079163239171778</v>
       </c>
     </row>
     <row r="93">
@@ -834,7 +814,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.1241130284275493</v>
+        <v>1.1245004798955827</v>
       </c>
     </row>
     <row r="94">
@@ -842,7 +822,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1.1704408476735517</v>
+        <v>1.1713305846040807</v>
       </c>
     </row>
     <row r="95">
@@ -850,7 +830,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.1634297017449893</v>
+        <v>1.1647848470172926</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +838,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1.0801910227678833</v>
+        <v>1.0818434755718243</v>
       </c>
     </row>
     <row r="97">
@@ -866,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.85229230204326567</v>
+        <v>0.85115689841434727</v>
       </c>
     </row>
     <row r="98">
@@ -874,7 +854,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.93327717624787543</v>
+        <v>0.9320901033979776</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +862,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.0438713302410403</v>
+        <v>1.0428968002658829</v>
       </c>
     </row>
     <row r="100">
@@ -890,7 +870,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.0707342417715366</v>
+        <v>1.0698795474272966</v>
       </c>
     </row>
     <row r="101">
@@ -898,7 +878,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.0822870912196212</v>
+        <v>1.0814507717401198</v>
       </c>
     </row>
     <row r="102">
@@ -906,7 +886,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.0829431221730994</v>
+        <v>1.0822786340291473</v>
       </c>
     </row>
     <row r="103">
@@ -914,7 +894,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.1087152168755303</v>
+        <v>1.1081985545489512</v>
       </c>
     </row>
     <row r="104">
@@ -922,7 +902,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.1681488066890868</v>
+        <v>1.1681000634860987</v>
       </c>
     </row>
     <row r="105">
@@ -930,7 +910,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.1970845711573284</v>
+        <v>1.1974106841167804</v>
       </c>
     </row>
     <row r="106">
@@ -938,7 +918,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.1565706180565662</v>
+        <v>1.1572882776646474</v>
       </c>
     </row>
     <row r="107">
@@ -946,7 +926,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.82112159772642801</v>
+        <v>0.82010561290998762</v>
       </c>
     </row>
     <row r="108">
@@ -954,7 +934,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.93643404792746709</v>
+        <v>0.9354926622340799</v>
       </c>
     </row>
     <row r="109">
@@ -962,7 +942,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.0771036651263424</v>
+        <v>1.0763260217217658</v>
       </c>
     </row>
     <row r="110">
@@ -970,7 +950,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.1529852369283107</v>
+        <v>1.1521083390925171</v>
       </c>
     </row>
     <row r="111">
@@ -978,7 +958,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.1534794904604746</v>
+        <v>1.1526024905666237</v>
       </c>
     </row>
     <row r="112">
@@ -986,7 +966,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.1661356325614642</v>
+        <v>1.1652269362782584</v>
       </c>
     </row>
     <row r="113">
@@ -994,7 +974,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1.1758123056783825</v>
+        <v>1.1747861723427524</v>
       </c>
     </row>
     <row r="114">
@@ -1002,7 +982,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.173114421034456</v>
+        <v>1.1722309021930635</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +990,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.1931778395162562</v>
+        <v>1.1925781310799373</v>
       </c>
     </row>
     <row r="116">
@@ -1018,7 +998,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.1965208070278606</v>
+        <v>1.1962778983454825</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1006,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.90998706118536588</v>
+        <v>0.90900941954167336</v>
       </c>
     </row>
     <row r="118">
@@ -1034,7 +1014,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.0572912872911189</v>
+        <v>1.0564831584059153</v>
       </c>
     </row>
     <row r="119">
@@ -1042,7 +1022,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.1405958920139034</v>
+        <v>1.1396960510913448</v>
       </c>
     </row>
     <row r="120">
@@ -1050,7 +1030,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1.1365816905111672</v>
+        <v>1.1356755572211901</v>
       </c>
     </row>
     <row r="121">
@@ -1058,7 +1038,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.1503203563655569</v>
+        <v>1.1493889243301534</v>
       </c>
     </row>
     <row r="122">
@@ -1066,7 +1046,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.1507393140049968</v>
+        <v>1.1496766013104975</v>
       </c>
     </row>
     <row r="123">
@@ -1074,7 +1054,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.1428134956972105</v>
+        <v>1.1418852363695124</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1062,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.1616348155157667</v>
+        <v>1.1609859870437524</v>
       </c>
     </row>
     <row r="125">
@@ -1090,7 +1070,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.1049084276002314</v>
+        <v>1.1042786917469332</v>
       </c>
     </row>
     <row r="126">
@@ -1098,7 +1078,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.107853539610534</v>
+        <v>1.1072229403313489</v>
       </c>
     </row>
     <row r="127">
@@ -1106,7 +1086,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.1992490724305871</v>
+        <v>1.1983198752896562</v>
       </c>
     </row>
     <row r="128">
@@ -1114,7 +1094,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.1972995826055577</v>
+        <v>1.1960528921199918</v>
       </c>
     </row>
     <row r="129">
@@ -1122,7 +1102,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1.1918415386144599</v>
+        <v>1.1904810419570009</v>
       </c>
     </row>
     <row r="130">
@@ -1130,7 +1110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.1934780248684178</v>
+        <v>1.1922119683692176</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1118,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.28412834803526987</v>
+        <v>0.28709827936971216</v>
       </c>
     </row>
     <row r="132">
@@ -1146,7 +1126,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.36484896774270975</v>
+        <v>0.36815427742767665</v>
       </c>
     </row>
     <row r="133">
@@ -1154,7 +1134,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.3426725781042404</v>
+        <v>0.34581254208449386</v>
       </c>
     </row>
     <row r="134">
@@ -1162,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.44177012426048856</v>
+        <v>0.4453065419008187</v>
       </c>
     </row>
     <row r="135">
@@ -1170,7 +1150,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.39887920805604438</v>
+        <v>0.40262403068449526</v>
       </c>
     </row>
     <row r="136">
@@ -1178,7 +1158,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.16015103183484411</v>
+        <v>-0.15842676597998906</v>
       </c>
     </row>
     <row r="137">
@@ -1186,7 +1166,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.37185290353879624</v>
+        <v>0.37402533711884928</v>
       </c>
     </row>
     <row r="138">
@@ -1194,7 +1174,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.5886921234879704</v>
+        <v>0.59114104646845389</v>
       </c>
     </row>
     <row r="139">
@@ -1202,7 +1182,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.72009619953375548</v>
+        <v>0.72310051343734794</v>
       </c>
     </row>
     <row r="140">
@@ -1210,7 +1190,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.70158247283352093</v>
+        <v>0.7050014729770725</v>
       </c>
     </row>
     <row r="141">
@@ -1218,7 +1198,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.68054696536796111</v>
+        <v>0.68389333787950868</v>
       </c>
     </row>
     <row r="142">
@@ -1226,7 +1206,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.54091994389404219</v>
+        <v>0.54439700585375372</v>
       </c>
     </row>
     <row r="143">
@@ -1234,7 +1214,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.32911683445021228</v>
+        <v>0.33022332010200339</v>
       </c>
     </row>
     <row r="144">
@@ -1242,7 +1222,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.55750120726705898</v>
+        <v>0.5587528502888941</v>
       </c>
     </row>
     <row r="145">
@@ -1250,7 +1230,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.74429816107717572</v>
+        <v>0.74574790119395973</v>
       </c>
     </row>
     <row r="146">
@@ -1258,7 +1238,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.8837325776387549</v>
+        <v>0.88580923637839826</v>
       </c>
     </row>
     <row r="147">
@@ -1266,7 +1246,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.92933154072596502</v>
+        <v>0.93202415880505907</v>
       </c>
     </row>
     <row r="148">
@@ -1274,7 +1254,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.91916939091442451</v>
+        <v>0.92182786336476286</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1262,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.88337653072817246</v>
+        <v>0.88650958299872851</v>
       </c>
     </row>
     <row r="150">
@@ -1290,7 +1270,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.7286007553595929</v>
+        <v>0.73158323101775757</v>
       </c>
     </row>
     <row r="151">
@@ -1298,7 +1278,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.57822202671656731</v>
+        <v>0.57869522269560114</v>
       </c>
     </row>
     <row r="152">
@@ -1306,7 +1286,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.71496589164562363</v>
+        <v>0.7153092436450097</v>
       </c>
     </row>
     <row r="153">
@@ -1314,7 +1294,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.8632751241334119</v>
+        <v>0.86390464012077028</v>
       </c>
     </row>
     <row r="154">
@@ -1322,7 +1302,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.98433662496480134</v>
+        <v>0.98547049029046663</v>
       </c>
     </row>
     <row r="155">
@@ -1330,7 +1310,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.0499747757104165</v>
+        <v>1.0516910724394901</v>
       </c>
     </row>
     <row r="156">
@@ -1338,7 +1318,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.0350018988320524</v>
+        <v>1.0367047445034843</v>
       </c>
     </row>
     <row r="157">
@@ -1346,7 +1326,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1.0201389662218492</v>
+        <v>1.022171738556656</v>
       </c>
     </row>
     <row r="158">
@@ -1354,7 +1334,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.9721267818806496</v>
+        <v>0.97445168171073482</v>
       </c>
     </row>
     <row r="159">
@@ -1362,7 +1342,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.88175236548442948</v>
+        <v>0.88430384641540971</v>
       </c>
     </row>
     <row r="160">
@@ -1370,7 +1350,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.70581409264186468</v>
+        <v>0.70842902846508293</v>
       </c>
     </row>
     <row r="161">
@@ -1378,7 +1358,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.74915428213784463</v>
+        <v>0.7488942585834002</v>
       </c>
     </row>
     <row r="162">
@@ -1386,7 +1366,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.84287029457137597</v>
+        <v>0.84233637636750536</v>
       </c>
     </row>
     <row r="163">
@@ -1394,7 +1374,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.93031057380241644</v>
+        <v>0.93018741148060702</v>
       </c>
     </row>
     <row r="164">
@@ -1402,7 +1382,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.97874496647736753</v>
+        <v>0.97889149521516983</v>
       </c>
     </row>
     <row r="165">
@@ -1410,7 +1390,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1.0309564839870584</v>
+        <v>1.0313411170794469</v>
       </c>
     </row>
     <row r="166">
@@ -1418,7 +1398,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1.0406731376881768</v>
+        <v>1.0411045916429067</v>
       </c>
     </row>
     <row r="167">
@@ -1426,7 +1406,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.75601666855854988</v>
+        <v>0.75676584952540937</v>
       </c>
     </row>
     <row r="168">
@@ -1434,7 +1414,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1.1291227025739528</v>
+        <v>1.1306975339153751</v>
       </c>
     </row>
     <row r="169">
@@ -1442,7 +1422,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1.0931695576135452</v>
+        <v>1.0949573139104321</v>
       </c>
     </row>
     <row r="170">
@@ -1450,7 +1430,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.99317149490178613</v>
+        <v>0.99536637350584845</v>
       </c>
     </row>
     <row r="171">
@@ -1458,7 +1438,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.77616684991005724</v>
+        <v>0.77529050299738889</v>
       </c>
     </row>
     <row r="172">
@@ -1466,7 +1446,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.85959013611089119</v>
+        <v>0.85847579354711656</v>
       </c>
     </row>
     <row r="173">
@@ -1474,7 +1454,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.91733154140811335</v>
+        <v>0.9165175781979108</v>
       </c>
     </row>
     <row r="174">
@@ -1482,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.98172109089151049</v>
+        <v>0.9809618245023709</v>
       </c>
     </row>
     <row r="175">
@@ -1490,7 +1470,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1.0058905498190547</v>
+        <v>1.00549683289832</v>
       </c>
     </row>
     <row r="176">
@@ -1498,7 +1478,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1.0344059529376364</v>
+        <v>1.0340842504357637</v>
       </c>
     </row>
     <row r="177">
@@ -1506,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1.1050448673926745</v>
+        <v>1.1050864779763274</v>
       </c>
     </row>
     <row r="178">
@@ -1514,7 +1494,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.1507065374168306</v>
+        <v>1.1511743476243639</v>
       </c>
     </row>
     <row r="179">
@@ -1522,7 +1502,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1.1894248698730372</v>
+        <v>1.1904106416128004</v>
       </c>
     </row>
     <row r="180">
@@ -1530,7 +1510,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1.1545631275169588</v>
+        <v>1.1559593868725553</v>
       </c>
     </row>
     <row r="181">
@@ -1538,7 +1518,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.061069953155793</v>
+        <v>1.0627538640715581</v>
       </c>
     </row>
     <row r="182">
@@ -1546,7 +1526,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.7326087680027572</v>
+        <v>0.73159396867294924</v>
       </c>
     </row>
     <row r="183">
@@ -1554,7 +1534,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.83517021922349743</v>
+        <v>0.8339861835171748</v>
       </c>
     </row>
     <row r="184">
@@ -1562,7 +1542,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.92277726579694896</v>
+        <v>0.92156468858960305</v>
       </c>
     </row>
     <row r="185">
@@ -1570,7 +1550,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1.0343159789934777</v>
+        <v>1.0333281583860268</v>
       </c>
     </row>
     <row r="186">
@@ -1578,7 +1558,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.0728062818649469</v>
+        <v>1.0719574542098873</v>
       </c>
     </row>
     <row r="187">
@@ -1586,7 +1566,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1.0932220868435096</v>
+        <v>1.0924080351127152</v>
       </c>
     </row>
     <row r="188">
@@ -1594,7 +1574,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.0983048382256064</v>
+        <v>1.0976711523852241</v>
       </c>
     </row>
     <row r="189">
@@ -1602,7 +1582,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.1293745274790623</v>
+        <v>1.1288959832631602</v>
       </c>
     </row>
     <row r="190">
@@ -1610,7 +1590,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.1955498938404605</v>
+        <v>1.1955704444962094</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1598,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.2136946743520927</v>
+        <v>1.2140820168202588</v>
       </c>
     </row>
     <row r="192">
@@ -1626,7 +1606,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1.1638934210644007</v>
+        <v>1.1646797275952561</v>
       </c>
     </row>
     <row r="193">
@@ -1634,7 +1614,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.64837128502279628</v>
+        <v>0.64739210990909957</v>
       </c>
     </row>
     <row r="194">
@@ -1642,7 +1622,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.8045293674275763</v>
+        <v>0.80347786587490211</v>
       </c>
     </row>
     <row r="195">
@@ -1650,7 +1630,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.92270820020594901</v>
+        <v>0.92174524401090741</v>
       </c>
     </row>
     <row r="196">
@@ -1658,7 +1638,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1.0679049581611824</v>
+        <v>1.0671139222581856</v>
       </c>
     </row>
     <row r="197">
@@ -1666,7 +1646,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1.1515238589165031</v>
+        <v>1.150642978530301</v>
       </c>
     </row>
     <row r="198">
@@ -1674,7 +1654,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.1494035691861342</v>
+        <v>1.1485207850708132</v>
       </c>
     </row>
     <row r="199">
@@ -1682,7 +1662,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.1644582440389497</v>
+        <v>1.1635486167386742</v>
       </c>
     </row>
     <row r="200">
@@ -1690,7 +1670,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.1759219765738276</v>
+        <v>1.1748932613457332</v>
       </c>
     </row>
     <row r="201">
@@ -1698,7 +1678,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1.1815096008410078</v>
+        <v>1.1806435627333776</v>
       </c>
     </row>
     <row r="202">
@@ -1706,7 +1686,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1.2076891014177293</v>
+        <v>1.2071272361518042</v>
       </c>
     </row>
     <row r="203">
@@ -1714,7 +1694,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1.2144608003344544</v>
+        <v>1.2142716269439051</v>
       </c>
     </row>
     <row r="204">
@@ -1722,7 +1702,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.0980877768396242</v>
+        <v>1.0982687633237271</v>
       </c>
     </row>
     <row r="205">
@@ -1730,7 +1710,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.77402137182833508</v>
+        <v>0.77292980198170547</v>
       </c>
     </row>
     <row r="206">
@@ -1738,7 +1718,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.89868493904087088</v>
+        <v>0.89768949265810538</v>
       </c>
     </row>
     <row r="207">
@@ -1746,7 +1726,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1.0489882884365445</v>
+        <v>1.0481650570326926</v>
       </c>
     </row>
     <row r="208">
@@ -1754,7 +1734,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.1307658223855948</v>
+        <v>1.1298493264759637</v>
       </c>
     </row>
     <row r="209">
@@ -1762,7 +1742,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1.1284133893016033</v>
+        <v>1.1274959673357181</v>
       </c>
     </row>
     <row r="210">
@@ -1770,7 +1750,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.1429660456803645</v>
+        <v>1.1420230113526735</v>
       </c>
     </row>
     <row r="211">
@@ -1778,7 +1758,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1.1454682290786653</v>
+        <v>1.1443951908735293</v>
       </c>
     </row>
     <row r="212">
@@ -1786,7 +1766,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.1362124608473607</v>
+        <v>1.135276973104242</v>
       </c>
     </row>
     <row r="213">
@@ -1794,7 +1774,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1.1656932378026621</v>
+        <v>1.1650647100143543</v>
       </c>
     </row>
     <row r="214">
@@ -1802,7 +1782,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.1807702661866282</v>
+        <v>1.180518700137257</v>
       </c>
     </row>
     <row r="215">
@@ -1810,7 +1790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1.0806404885580005</v>
+        <v>1.0807762893339872</v>
       </c>
     </row>
     <row r="216">
@@ -1818,7 +1798,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.80393361307835132</v>
+        <v>0.80329329241309422</v>
       </c>
     </row>
     <row r="217">
@@ -1826,7 +1806,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.95012497235325133</v>
+        <v>0.94949449665773655</v>
       </c>
     </row>
     <row r="218">
@@ -1834,7 +1814,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1.0949257960098384</v>
+        <v>1.0942766123849159</v>
       </c>
     </row>
     <row r="219">
@@ -1842,7 +1822,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1.0976309068176011</v>
+        <v>1.0969800527556657</v>
       </c>
     </row>
     <row r="220">
@@ -1850,7 +1830,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1.1855113974134484</v>
+        <v>1.1845628950890748</v>
       </c>
     </row>
     <row r="221">
@@ -1858,7 +1838,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1.1838526215628857</v>
+        <v>1.1825848372501266</v>
       </c>
     </row>
     <row r="222">
@@ -1866,7 +1846,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1.1825980713148263</v>
+        <v>1.1812299504345187</v>
       </c>
     </row>
     <row r="223">
@@ -1874,7 +1854,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1.1999803354612573</v>
+        <v>1.1987373908520587</v>
       </c>
     </row>
     <row r="224">
@@ -1882,7 +1862,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1.1796078744417038</v>
+        <v>1.1786557944329465</v>
       </c>
     </row>
     <row r="225">
@@ -1890,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1.0804965059937213</v>
+        <v>1.0799567597761055</v>
       </c>
     </row>
     <row r="226">
@@ -1898,7 +1878,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.55107526825884112</v>
+        <v>0.55103799427293765</v>
       </c>
     </row>
     <row r="227">
@@ -1906,7 +1886,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.7354801092207105</v>
+        <v>0.73506657399609565</v>
       </c>
     </row>
     <row r="228">
@@ -1914,7 +1894,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.91871914326621229</v>
+        <v>0.91798576226655626</v>
       </c>
     </row>
     <row r="229">
@@ -1922,7 +1902,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.92276544682801009</v>
+        <v>0.9220298285244849</v>
       </c>
     </row>
     <row r="230">
@@ -1930,7 +1910,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1.0716929843484801</v>
+        <v>1.0708244166031453</v>
       </c>
     </row>
     <row r="231">
@@ -1938,7 +1918,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1.1538095447904266</v>
+        <v>1.152499830515656</v>
       </c>
     </row>
     <row r="232">
@@ -1946,7 +1926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1.159649366406621</v>
+        <v>1.1580792154718509</v>
       </c>
     </row>
     <row r="233">
@@ -1954,7 +1934,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1.134434872599472</v>
+        <v>1.1329934206138434</v>
       </c>
     </row>
     <row r="234">
@@ -1962,7 +1942,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1.0734003585168412</v>
+        <v>1.0722113830686113</v>
       </c>
     </row>
     <row r="235">
@@ -1970,7 +1950,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.40014903770511329</v>
+        <v>0.39982695318916989</v>
       </c>
     </row>
     <row r="236">
@@ -1978,7 +1958,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.61414089960483753</v>
+        <v>0.61352825362038577</v>
       </c>
     </row>
     <row r="237">
@@ -1986,7 +1966,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.61496885458751427</v>
+        <v>0.61435171541495848</v>
       </c>
     </row>
     <row r="238">
@@ -1994,7 +1974,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.83594298632166797</v>
+        <v>0.83486025316659607</v>
       </c>
     </row>
     <row r="239">
@@ -2002,7 +1982,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1.0136498942862147</v>
+        <v>1.0124030441774714</v>
       </c>
     </row>
     <row r="240">
@@ -2010,7 +1990,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.0129665701078021</v>
+        <v>1.0117417165835587</v>
       </c>
     </row>
     <row r="241">
@@ -2018,7 +1998,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.94095605210149313</v>
+        <v>0.93982475758252493</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2006,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.83298379081713403</v>
+        <v>0.83211795298325497</v>
       </c>
     </row>
     <row r="243">
@@ -2034,7 +2014,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.24945866708062725</v>
+        <v>0.24897528001339175</v>
       </c>
     </row>
     <row r="244">
@@ -2042,7 +2022,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.24843102701243122</v>
+        <v>0.24794313605521495</v>
       </c>
     </row>
     <row r="245">
@@ -2050,7 +2030,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.54952768137384844</v>
+        <v>0.54856341355923421</v>
       </c>
     </row>
     <row r="246">
@@ -2058,7 +2038,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.69081379009523425</v>
+        <v>0.68967526114202338</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2046,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.71211251634898964</v>
+        <v>0.71100919619191894</v>
       </c>
     </row>
     <row r="248">
@@ -2074,7 +2054,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.69181552543039981</v>
+        <v>0.69098518309008283</v>
       </c>
     </row>
     <row r="249">
@@ -2082,7 +2062,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.39046147111551438</v>
+        <v>0.38964614375114692</v>
       </c>
     </row>
     <row r="250">
@@ -2090,7 +2070,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.46212562080940306</v>
+        <v>0.46154814235570818</v>
       </c>
     </row>
     <row r="251">
@@ -2098,7 +2078,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>-0.0047084513669469049</v>
+        <v>-0.0019096639716586297</v>
       </c>
     </row>
     <row r="252">
@@ -2106,7 +2086,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.064826471312251041</v>
+        <v>0.067820721935121425</v>
       </c>
     </row>
     <row r="253">
@@ -2114,7 +2094,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.071839389937073339</v>
+        <v>0.075286313444695413</v>
       </c>
     </row>
     <row r="254">
@@ -2122,7 +2102,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.023748518969193128</v>
+        <v>0.025335020090208347</v>
       </c>
     </row>
     <row r="255">
@@ -2130,7 +2110,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.19217148537614029</v>
+        <v>0.19420773487911827</v>
       </c>
     </row>
     <row r="256">
@@ -2138,7 +2118,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.30798781760751048</v>
+        <v>0.31070081003501215</v>
       </c>
     </row>
     <row r="257">
@@ -2146,7 +2126,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.29118655290301287</v>
+        <v>0.29428853125179394</v>
       </c>
     </row>
     <row r="258">
@@ -2154,7 +2134,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.25054121283830028</v>
+        <v>0.25353369121324193</v>
       </c>
     </row>
     <row r="259">
@@ -2162,7 +2142,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.24188585527914272</v>
+        <v>0.24510305808348143</v>
       </c>
     </row>
     <row r="260">
@@ -2170,7 +2150,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.17649089654343617</v>
+        <v>0.1773554965778911</v>
       </c>
     </row>
     <row r="261">
@@ -2178,7 +2158,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0.31073884061168872</v>
+        <v>0.31189431347427077</v>
       </c>
     </row>
     <row r="262">
@@ -2186,7 +2166,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.43064207890015055</v>
+        <v>0.4325274189934043</v>
       </c>
     </row>
     <row r="263">
@@ -2194,7 +2174,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.51456481814832122</v>
+        <v>0.51710843975476006</v>
       </c>
     </row>
     <row r="264">
@@ -2202,7 +2182,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.4991578433538425</v>
+        <v>0.50166538477807765</v>
       </c>
     </row>
     <row r="265">
@@ -2210,7 +2190,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.49422616362487537</v>
+        <v>0.49709908456778207</v>
       </c>
     </row>
     <row r="266">
@@ -2218,7 +2198,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.39082183633995338</v>
+        <v>0.39373934962328927</v>
       </c>
     </row>
     <row r="267">
@@ -2226,7 +2206,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.23282722997994401</v>
+        <v>0.23291005910454157</v>
       </c>
     </row>
     <row r="268">
@@ -2234,7 +2214,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>0.33346576691376956</v>
+        <v>0.33353024168629142</v>
       </c>
     </row>
     <row r="269">
@@ -2242,7 +2222,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.43810405811414432</v>
+        <v>0.43847553640698583</v>
       </c>
     </row>
     <row r="270">
@@ -2250,7 +2230,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.52843487582089643</v>
+        <v>0.52923528716360757</v>
       </c>
     </row>
     <row r="271">
@@ -2258,7 +2238,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.63461713714931267</v>
+        <v>0.63611396187405544</v>
       </c>
     </row>
     <row r="272">
@@ -2266,7 +2246,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.61441040079899278</v>
+        <v>0.61586830953226612</v>
       </c>
     </row>
     <row r="273">
@@ -2274,7 +2254,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.66960336521630937</v>
+        <v>0.6714275096678024</v>
       </c>
     </row>
     <row r="274">
@@ -2282,7 +2262,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.68551471090215632</v>
+        <v>0.68764104017729943</v>
       </c>
     </row>
     <row r="275">
@@ -2290,7 +2270,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.63287635325040881</v>
+        <v>0.63526648987024759</v>
       </c>
     </row>
     <row r="276">
@@ -2298,7 +2278,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.42089488518379986</v>
+        <v>0.42021284541787496</v>
       </c>
     </row>
     <row r="277">
@@ -2306,7 +2286,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.45596401085129135</v>
+        <v>0.45515683813505875</v>
       </c>
     </row>
     <row r="278">
@@ -2314,7 +2294,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.50269519216511971</v>
+        <v>0.50202483429463773</v>
       </c>
     </row>
     <row r="279">
@@ -2322,7 +2302,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.50884826031086539</v>
+        <v>0.50877464962567953</v>
       </c>
     </row>
     <row r="280">
@@ -2330,7 +2310,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.62848855020907923</v>
+        <v>0.62881035087803838</v>
       </c>
     </row>
     <row r="281">
@@ -2338,7 +2318,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.62159956305114028</v>
+        <v>0.6219717319124457</v>
       </c>
     </row>
     <row r="282">
@@ -2346,7 +2326,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.7831705425562292</v>
+        <v>0.78415099696352342</v>
       </c>
     </row>
     <row r="283">
@@ -2354,7 +2334,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.88638307148745332</v>
+        <v>0.88770333368373033</v>
       </c>
     </row>
     <row r="284">
@@ -2362,7 +2342,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.90983153400148808</v>
+        <v>0.91173981090504497</v>
       </c>
     </row>
     <row r="285">
@@ -2370,7 +2350,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.8028937186563404</v>
+        <v>0.80480933018398793</v>
       </c>
     </row>
     <row r="286">
@@ -2378,7 +2358,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.45006601071088892</v>
+        <v>0.44865177352420194</v>
       </c>
     </row>
     <row r="287">
@@ -2386,7 +2366,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.502082601609665</v>
+        <v>0.50073436454526643</v>
       </c>
     </row>
     <row r="288">
@@ -2394,7 +2374,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.55810984355614512</v>
+        <v>0.55718976986488955</v>
       </c>
     </row>
     <row r="289">
@@ -2402,7 +2382,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.60990483247991956</v>
+        <v>0.60916488206819619</v>
       </c>
     </row>
     <row r="290">
@@ -2410,7 +2390,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.70439575020167555</v>
+        <v>0.70381748028186186</v>
       </c>
     </row>
     <row r="291">
@@ -2418,7 +2398,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.75473967927442398</v>
+        <v>0.7542910034094642</v>
       </c>
     </row>
     <row r="292">
@@ -2426,7 +2406,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.87341723959921069</v>
+        <v>0.8734979701460992</v>
       </c>
     </row>
     <row r="293">
@@ -2434,7 +2414,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.98714533855189268</v>
+        <v>0.98774653664163392</v>
       </c>
     </row>
     <row r="294">
@@ -2442,7 +2422,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1.0392167522348716</v>
+        <v>1.0404583249570276</v>
       </c>
     </row>
     <row r="295">
@@ -2450,7 +2430,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1.0309210468191545</v>
+        <v>1.0323834653776816</v>
       </c>
     </row>
     <row r="296">
@@ -2458,7 +2438,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.91414158934638612</v>
+        <v>0.9155600969719887</v>
       </c>
     </row>
     <row r="297">
@@ -2466,7 +2446,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.49564887864599744</v>
+        <v>0.49396541184499038</v>
       </c>
     </row>
     <row r="298">
@@ -2474,7 +2454,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.58983731245931226</v>
+        <v>0.58833484196238039</v>
       </c>
     </row>
     <row r="299">
@@ -2482,7 +2462,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.67299576761938829</v>
+        <v>0.67180569440685078</v>
       </c>
     </row>
     <row r="300">
@@ -2490,7 +2470,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.78784460607236106</v>
+        <v>0.78683343115520143</v>
       </c>
     </row>
     <row r="301">
@@ -2498,7 +2478,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.86815127625898625</v>
+        <v>0.86752130239284442</v>
       </c>
     </row>
     <row r="302">
@@ -2506,7 +2486,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.89034458233424185</v>
+        <v>0.88975290379491445</v>
       </c>
     </row>
     <row r="303">
@@ -2514,7 +2494,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.94423727067060714</v>
+        <v>0.943775743642701</v>
       </c>
     </row>
     <row r="304">
@@ -2522,7 +2502,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>0.90654953838070484</v>
+        <v>0.90625796055204499</v>
       </c>
     </row>
     <row r="305">
@@ -2530,7 +2510,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>1.070174233396801</v>
+        <v>1.0703522623000599</v>
       </c>
     </row>
     <row r="306">
@@ -2538,7 +2518,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>1.1125724500767713</v>
+        <v>1.1130894998950132</v>
       </c>
     </row>
     <row r="307">
@@ -2546,7 +2526,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>1.0804727435664818</v>
+        <v>1.081027761533681</v>
       </c>
     </row>
     <row r="308">
@@ -2554,7 +2534,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.48888880283029884</v>
+        <v>0.48779242623780267</v>
       </c>
     </row>
     <row r="309">
@@ -2562,7 +2542,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.61311027657967043</v>
+        <v>0.61188134848778608</v>
       </c>
     </row>
     <row r="310">
@@ -2570,7 +2550,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.76074251583390995</v>
+        <v>0.75967286621845176</v>
       </c>
     </row>
     <row r="311">
@@ -2578,7 +2558,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.92328057688189058</v>
+        <v>0.92250828228322013</v>
       </c>
     </row>
     <row r="312">
@@ -2586,7 +2566,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.98361617324680939</v>
+        <v>0.98305286056663554</v>
       </c>
     </row>
     <row r="313">
@@ -2594,7 +2574,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.97962285701163498</v>
+        <v>0.97905162870376228</v>
       </c>
     </row>
     <row r="314">
@@ -2602,7 +2582,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.99749309823051535</v>
+        <v>0.99676441637497371</v>
       </c>
     </row>
     <row r="315">
@@ -2610,7 +2590,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>1.0068609160228714</v>
+        <v>1.0061102629905163</v>
       </c>
     </row>
     <row r="316">
@@ -2618,7 +2598,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>1.0415314713967876</v>
+        <v>1.0407419456681939</v>
       </c>
     </row>
     <row r="317">
@@ -2626,7 +2606,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>1.1205329368389065</v>
+        <v>1.1198740448411852</v>
       </c>
     </row>
     <row r="318">
@@ -2634,7 +2614,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>1.1390717061401157</v>
+        <v>1.1386069714025078</v>
       </c>
     </row>
     <row r="319">
@@ -2642,7 +2622,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1.0884999194741301</v>
+        <v>1.0882797036429679</v>
       </c>
     </row>
     <row r="320">
@@ -2650,7 +2630,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>0.46037194480543475</v>
+        <v>0.45923985515548454</v>
       </c>
     </row>
     <row r="321">
@@ -2658,7 +2638,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>0.59119355189240386</v>
+        <v>0.58993722753504685</v>
       </c>
     </row>
     <row r="322">
@@ -2666,7 +2646,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.74155320853277285</v>
+        <v>0.7404565536477663</v>
       </c>
     </row>
     <row r="323">
@@ -2674,7 +2654,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.90712417599674622</v>
+        <v>0.90632056640346403</v>
       </c>
     </row>
     <row r="324">
@@ -2682,7 +2662,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.96350712991460019</v>
+        <v>0.96290087330094065</v>
       </c>
     </row>
     <row r="325">
@@ -2690,7 +2670,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.95915657274902699</v>
+        <v>0.95854636325173226</v>
       </c>
     </row>
     <row r="326">
@@ -2698,7 +2678,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.97225632190714906</v>
+        <v>0.97148805772258706</v>
       </c>
     </row>
     <row r="327">
@@ -2706,7 +2686,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.96985880124272938</v>
+        <v>0.96905213360614262</v>
       </c>
     </row>
     <row r="328">
@@ -2714,7 +2694,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.99168527883628432</v>
+        <v>0.99081307305244104</v>
       </c>
     </row>
     <row r="329">
@@ -2722,7 +2702,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>1.072493210501563</v>
+        <v>1.0717423603723097</v>
       </c>
     </row>
     <row r="330">
@@ -2730,7 +2710,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>1.1096363981533801</v>
+        <v>1.1090998346145402</v>
       </c>
     </row>
     <row r="331">
@@ -2738,7 +2718,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>1.0852239932781216</v>
+        <v>1.0849767968343822</v>
       </c>
     </row>
     <row r="332">
@@ -2746,7 +2726,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.45505545961731925</v>
+        <v>0.45472854039766558</v>
       </c>
     </row>
     <row r="333">
@@ -2754,7 +2734,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>0.63731512889778308</v>
+        <v>0.63691875070431547</v>
       </c>
     </row>
     <row r="334">
@@ -2762,7 +2742,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.82424501413642914</v>
+        <v>0.82385130662200767</v>
       </c>
     </row>
     <row r="335">
@@ -2770,7 +2750,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.94574415243318655</v>
+        <v>0.94530700948617818</v>
       </c>
     </row>
     <row r="336">
@@ -2778,7 +2758,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.94535840807915261</v>
+        <v>0.94492147896909107</v>
       </c>
     </row>
     <row r="337">
@@ -2786,7 +2766,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>1.0194104080486857</v>
+        <v>1.0188740860535586</v>
       </c>
     </row>
     <row r="338">
@@ -2794,7 +2774,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>1.0047153947815237</v>
+        <v>1.0038006765945602</v>
       </c>
     </row>
     <row r="339">
@@ -2802,7 +2782,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>1.0317912032424124</v>
+        <v>1.0305243445845982</v>
       </c>
     </row>
     <row r="340">
@@ -2810,7 +2790,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1.0810416129516009</v>
+        <v>1.0797078039566377</v>
       </c>
     </row>
     <row r="341">
@@ -2818,7 +2798,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>1.1170167568814111</v>
+        <v>1.1157539058527759</v>
       </c>
     </row>
     <row r="342">
@@ -2826,7 +2806,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>1.0558680912648386</v>
+        <v>1.0548490125171426</v>
       </c>
     </row>
     <row r="343">
@@ -2834,7 +2814,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.1821210732720995</v>
+        <v>0.18225696236067865</v>
       </c>
     </row>
     <row r="344">
@@ -2842,7 +2822,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.38662725570510348</v>
+        <v>0.38678184654939046</v>
       </c>
     </row>
     <row r="345">
@@ -2850,7 +2830,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>0.60032900476434981</v>
+        <v>0.60032445946041624</v>
       </c>
     </row>
     <row r="346">
@@ -2858,7 +2838,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.801020528275183</v>
+        <v>0.80086147449286305</v>
       </c>
     </row>
     <row r="347">
@@ -2866,7 +2846,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.80232222427416655</v>
+        <v>0.80216381754323651</v>
       </c>
     </row>
     <row r="348">
@@ -2874,7 +2854,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.9326595046827153</v>
+        <v>0.93214525958700423</v>
       </c>
     </row>
     <row r="349">
@@ -2882,7 +2862,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>0.98549733906109627</v>
+        <v>0.98442320830293639</v>
       </c>
     </row>
     <row r="350">
@@ -2890,7 +2870,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>1.0156671616436792</v>
+        <v>1.0143568247383763</v>
       </c>
     </row>
     <row r="351">
@@ -2898,7 +2878,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>1.0224970044457025</v>
+        <v>1.0210037550668383</v>
       </c>
     </row>
     <row r="352">
@@ -2906,7 +2886,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>0.99686974422031771</v>
+        <v>0.99547385548443779</v>
       </c>
     </row>
     <row r="353">
@@ -2914,7 +2894,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.89491477357457683</v>
+        <v>0.89370430160584402</v>
       </c>
     </row>
     <row r="354">
@@ -2922,7 +2902,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>-0.23325038610839882</v>
+        <v>-0.23299068770627271</v>
       </c>
     </row>
     <row r="355">
@@ -2930,7 +2910,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>-0.021929718731504615</v>
+        <v>-0.021682281829642148</v>
       </c>
     </row>
     <row r="356">
@@ -2938,7 +2918,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.24921203783797286</v>
+        <v>0.24935408285755814</v>
       </c>
     </row>
     <row r="357">
@@ -2946,7 +2926,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.46289091382817105</v>
+        <v>0.46277158541495189</v>
       </c>
     </row>
     <row r="358">
@@ -2954,7 +2934,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.46092033033199753</v>
+        <v>0.46079765949852902</v>
       </c>
     </row>
     <row r="359">
@@ -2962,7 +2942,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.70247038755907143</v>
+        <v>0.70207815571294541</v>
       </c>
     </row>
     <row r="360">
@@ -2970,7 +2950,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>0.87200484501156683</v>
+        <v>0.87107826427177215</v>
       </c>
     </row>
     <row r="361">
@@ -2978,7 +2958,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.90990124961517915</v>
+        <v>0.90845536291153661</v>
       </c>
     </row>
     <row r="362">
@@ -2986,7 +2966,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>0.87162165018484772</v>
+        <v>0.87032044795257379</v>
       </c>
     </row>
     <row r="363">
@@ -2994,7 +2974,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>0.77728391386232487</v>
+        <v>0.77607482018772911</v>
       </c>
     </row>
     <row r="364">
@@ -3002,7 +2982,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>0.64479630687023115</v>
+        <v>0.64378388211994486</v>
       </c>
     </row>
     <row r="365">
@@ -3010,7 +2990,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>-0.50118611898766974</v>
+        <v>-0.50081146351695915</v>
       </c>
     </row>
     <row r="366">
@@ -3018,7 +2998,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>-0.24924278354674226</v>
+        <v>-0.24922881783123468</v>
       </c>
     </row>
     <row r="367">
@@ -3026,7 +3006,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>0.09449306355407483</v>
+        <v>0.094271791181783679</v>
       </c>
     </row>
     <row r="368">
@@ -3034,7 +3014,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.090183099107193826</v>
+        <v>0.089960257562795382</v>
       </c>
     </row>
     <row r="369">
@@ -3042,7 +3022,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>0.42235961375044595</v>
+        <v>0.42164143693442602</v>
       </c>
     </row>
     <row r="370">
@@ -3050,7 +3030,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.58859615270571497</v>
+        <v>0.58750533690772444</v>
       </c>
     </row>
     <row r="371">
@@ -3058,7 +3038,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.63252249677078665</v>
+        <v>0.63142277482827824</v>
       </c>
     </row>
     <row r="372">
@@ -3066,7 +3046,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.63267563321879017</v>
+        <v>0.63171353968810795</v>
       </c>
     </row>
     <row r="373">
@@ -3074,7 +3054,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.55251105714899273</v>
+        <v>0.55180547786627032</v>
       </c>
     </row>
     <row r="374">
@@ -3082,7 +3062,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>-0.62956716613368913</v>
+        <v>-0.62959955246558996</v>
       </c>
     </row>
     <row r="375">
@@ -3090,7 +3070,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>-0.26638662940634456</v>
+        <v>-0.26675627054785467</v>
       </c>
     </row>
     <row r="376">
@@ -3098,7 +3078,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>-0.27118675543483922</v>
+        <v>-0.27155804949993889</v>
       </c>
     </row>
     <row r="377">
@@ -3106,7 +3086,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>0.13608555354708146</v>
+        <v>0.13529488308391655</v>
       </c>
     </row>
     <row r="378">
@@ -3114,7 +3094,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.39712551428128279</v>
+        <v>0.39646902607098428</v>
       </c>
     </row>
     <row r="379">
@@ -3122,7 +3102,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.46392079680324488</v>
+        <v>0.46332616778381269</v>
       </c>
     </row>
     <row r="380">
@@ -3130,7 +3110,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.39098941036042201</v>
+        <v>0.39052343424036129</v>
       </c>
     </row>
     <row r="381">
@@ -3138,7 +3118,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>0.25864325621170986</v>
+        <v>0.25822939387779309</v>
       </c>
     </row>
     <row r="382">
@@ -3146,7 +3126,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>-0.50997938486155803</v>
+        <v>-0.51039195035488472</v>
       </c>
     </row>
     <row r="383">
@@ -3154,7 +3134,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>-0.51344123522523644</v>
+        <v>-0.51385871024082952</v>
       </c>
     </row>
     <row r="384">
@@ -3162,7 +3142,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>-0.061081428827225025</v>
+        <v>-0.061600716818832675</v>
       </c>
     </row>
     <row r="385">
@@ -3170,7 +3150,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>0.1898223022336297</v>
+        <v>0.18928051875819732</v>
       </c>
     </row>
     <row r="386">
@@ -3178,7 +3158,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>0.24861469405668557</v>
+        <v>0.24843958751999248</v>
       </c>
     </row>
     <row r="387">
@@ -3186,7 +3166,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.17219673998647123</v>
+        <v>0.17212731461606812</v>
       </c>
     </row>
     <row r="388">
@@ -3194,7 +3174,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>-0.5413963757888528</v>
+        <v>-0.54156742817065928</v>
       </c>
     </row>
     <row r="389">
@@ -3202,7 +3182,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>-0.26207448830396762</v>
+        <v>-0.26054207359984094</v>
       </c>
     </row>
     <row r="390">
@@ -3210,7 +3190,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>-0.15826780932212162</v>
+        <v>-0.15625312529643839</v>
       </c>
     </row>
     <row r="391">
@@ -3218,7 +3198,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>-0.09902187529212246</v>
+        <v>-0.096434818424268223</v>
       </c>
     </row>
     <row r="392">
@@ -3226,7 +3206,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>-0.14453744651345568</v>
+        <v>-0.14206802483573011</v>
       </c>
     </row>
     <row r="393">
@@ -3234,7 +3214,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>-0.28142544685976684</v>
+        <v>-0.28111162413621321</v>
       </c>
     </row>
     <row r="394">
@@ -3242,7 +3222,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>-0.16281052228410658</v>
+        <v>-0.1620034137412121</v>
       </c>
     </row>
     <row r="395">
@@ -3250,7 +3230,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>-0.054772686930310573</v>
+        <v>-0.053368165292330863</v>
       </c>
     </row>
     <row r="396">
@@ -3258,7 +3238,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>0.061597235745320361</v>
+        <v>0.063724775234116571</v>
       </c>
     </row>
     <row r="397">
@@ -3266,7 +3246,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>0.032797395806764898</v>
+        <v>0.034873729286371669</v>
       </c>
     </row>
     <row r="398">
@@ -3274,7 +3254,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.09558566241965985</v>
+        <v>0.097989216474095808</v>
       </c>
     </row>
     <row r="399">
@@ -3282,7 +3262,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>0.084688055573728771</v>
+        <v>0.087134334903506389</v>
       </c>
     </row>
     <row r="400">
@@ -3290,7 +3270,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>-0.14185964376768698</v>
+        <v>-0.1423183732159638</v>
       </c>
     </row>
     <row r="401">
@@ -3298,7 +3278,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>-0.12559550221159116</v>
+        <v>-0.12582075011710778</v>
       </c>
     </row>
     <row r="402">
@@ -3306,7 +3286,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>-0.050443046820916881</v>
+        <v>-0.05038865015553675</v>
       </c>
     </row>
     <row r="403">
@@ -3314,7 +3294,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.030037256936536028</v>
+        <v>0.03067938211586212</v>
       </c>
     </row>
     <row r="404">
@@ -3322,7 +3302,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.15970157751190692</v>
+        <v>0.16082947905906866</v>
       </c>
     </row>
     <row r="405">
@@ -3330,7 +3310,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.12870893673796896</v>
+        <v>0.1298222029006145</v>
       </c>
     </row>
     <row r="406">
@@ -3338,7 +3318,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>0.28149283611896148</v>
+        <v>0.28297084217234103</v>
       </c>
     </row>
     <row r="407">
@@ -3346,7 +3326,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>0.31389226325464831</v>
+        <v>0.31569067589600908</v>
       </c>
     </row>
     <row r="408">
@@ -3354,7 +3334,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.29991229453205659</v>
+        <v>0.30175889144076673</v>
       </c>
     </row>
     <row r="409">
@@ -3362,7 +3342,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>0.038136017693874091</v>
+        <v>0.037029896559782782</v>
       </c>
     </row>
     <row r="410">
@@ -3370,7 +3350,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>0.0036195025618758173</v>
+        <v>0.0025885560235247725</v>
       </c>
     </row>
     <row r="411">
@@ -3378,7 +3358,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>-0.020901331242808189</v>
+        <v>-0.021611854779499503</v>
       </c>
     </row>
     <row r="412">
@@ -3386,7 +3366,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>-0.010767205346534718</v>
+        <v>-0.01106151834475036</v>
       </c>
     </row>
     <row r="413">
@@ -3394,7 +3374,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.18151605230638942</v>
+        <v>0.18183191091288997</v>
       </c>
     </row>
     <row r="414">
@@ -3402,7 +3382,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>0.15734447469005958</v>
+        <v>0.15766533195697746</v>
       </c>
     </row>
     <row r="415">
@@ -3410,7 +3390,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>0.37322950815821471</v>
+        <v>0.37390338592204775</v>
       </c>
     </row>
     <row r="416">
@@ -3418,7 +3398,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.52035513007878353</v>
+        <v>0.52154535425514825</v>
       </c>
     </row>
     <row r="417">
@@ -3426,7 +3406,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.62120589710429763</v>
+        <v>0.6227547794719609</v>
       </c>
     </row>
     <row r="418">
@@ -3434,7 +3414,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.061039666295852092</v>
+        <v>0.05914155885626584</v>
       </c>
     </row>
     <row r="419">
@@ -3442,7 +3422,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>0.041385889677838412</v>
+        <v>0.039589383185661506</v>
       </c>
     </row>
     <row r="420">
@@ -3450,7 +3430,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>0.074022753930441526</v>
+        <v>0.072675186409689618</v>
       </c>
     </row>
     <row r="421">
@@ -3458,7 +3438,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>0.10539551491879891</v>
+        <v>0.10453449954101997</v>
       </c>
     </row>
     <row r="422">
@@ -3466,7 +3446,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>0.23590337725903379</v>
+        <v>0.23548123834689261</v>
       </c>
     </row>
     <row r="423">
@@ -3474,7 +3454,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.25388168920192478</v>
+        <v>0.2535324463938915</v>
       </c>
     </row>
     <row r="424">
@@ -3482,7 +3462,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.42468112052164464</v>
+        <v>0.42461215552616738</v>
       </c>
     </row>
     <row r="425">
@@ -3490,7 +3470,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>0.63941369101267209</v>
+        <v>0.63988823995409894</v>
       </c>
     </row>
     <row r="426">
@@ -3498,7 +3478,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>0.81970114512753567</v>
+        <v>0.82066225112500812</v>
       </c>
     </row>
     <row r="427">
@@ -3506,7 +3486,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>0.76924564721767175</v>
+        <v>0.77038048942924797</v>
       </c>
     </row>
     <row r="428">
@@ -3514,7 +3494,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>0.1514736981954698</v>
+        <v>0.14971772399390024</v>
       </c>
     </row>
     <row r="429">
@@ -3522,7 +3502,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.21233324812883836</v>
+        <v>0.21055110271834276</v>
       </c>
     </row>
     <row r="430">
@@ -3530,7 +3510,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>0.28445433763196576</v>
+        <v>0.2830127682729115</v>
       </c>
     </row>
     <row r="431">
@@ -3538,7 +3518,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.3800116260446712</v>
+        <v>0.378884848734026</v>
       </c>
     </row>
     <row r="432">
@@ -3546,7 +3526,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.46043370044737197</v>
+        <v>0.45963503406830392</v>
       </c>
     </row>
     <row r="433">
@@ -3554,7 +3534,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>0.4643421247720419</v>
+        <v>0.46355401460274831</v>
       </c>
     </row>
     <row r="434">
@@ -3562,7 +3542,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>0.54244349508483791</v>
+        <v>0.54177530647293359</v>
       </c>
     </row>
     <row r="435">
@@ -3570,7 +3550,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>0.70318586903922764</v>
+        <v>0.70298392484820893</v>
       </c>
     </row>
     <row r="436">
@@ -3578,7 +3558,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.83209031694044855</v>
+        <v>0.83230705204579525</v>
       </c>
     </row>
     <row r="437">
@@ -3586,7 +3566,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>0.8733720638840925</v>
+        <v>0.87367290461432201</v>
       </c>
     </row>
     <row r="438">
@@ -3594,7 +3574,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.87513924227501894</v>
+        <v>0.87536155755872969</v>
       </c>
     </row>
     <row r="439">
@@ -3602,7 +3582,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.19586607343212184</v>
+        <v>0.19462872604907686</v>
       </c>
     </row>
     <row r="440">
@@ -3610,7 +3590,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.33302521749495206</v>
+        <v>0.33168298317922079</v>
       </c>
     </row>
     <row r="441">
@@ -3618,7 +3598,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.44708768285720912</v>
+        <v>0.44580810462003795</v>
       </c>
     </row>
     <row r="442">
@@ -3626,7 +3606,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.599094678516497</v>
+        <v>0.59831262817721376</v>
       </c>
     </row>
     <row r="443">
@@ -3634,7 +3614,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>0.66874749377673726</v>
+        <v>0.66805438743607504</v>
       </c>
     </row>
     <row r="444">
@@ -3642,7 +3622,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.66037417054080028</v>
+        <v>0.65967523112848658</v>
       </c>
     </row>
     <row r="445">
@@ -3650,7 +3630,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.72252017924313228</v>
+        <v>0.72182903331861936</v>
       </c>
     </row>
     <row r="446">
@@ -3658,7 +3638,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>0.77707051682042239</v>
+        <v>0.77644005268871796</v>
       </c>
     </row>
     <row r="447">
@@ -3666,7 +3646,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>0.85617086138011511</v>
+        <v>0.85569578230787613</v>
       </c>
     </row>
     <row r="448">
@@ -3674,7 +3654,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>0.89297606317953671</v>
+        <v>0.89234558273630982</v>
       </c>
     </row>
     <row r="449">
@@ -3682,7 +3662,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.94613228780358494</v>
+        <v>0.94546535796977882</v>
       </c>
     </row>
     <row r="450">
@@ -3690,7 +3670,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>0.17142259688457256</v>
+        <v>0.17016194432230863</v>
       </c>
     </row>
     <row r="451">
@@ -3698,7 +3678,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.31050188730653505</v>
+        <v>0.30913136199372759</v>
       </c>
     </row>
     <row r="452">
@@ -3706,7 +3686,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.42942446046967642</v>
+        <v>0.42812124077541308</v>
       </c>
     </row>
     <row r="453">
@@ -3714,7 +3694,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>0.57929482274679445</v>
+        <v>0.57848236184269886</v>
       </c>
     </row>
     <row r="454">
@@ -3722,7 +3702,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>0.64348705538519102</v>
+        <v>0.6427552531828844</v>
       </c>
     </row>
     <row r="455">
@@ -3730,7 +3710,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.62957584873395844</v>
+        <v>0.62883546563368886</v>
       </c>
     </row>
     <row r="456">
@@ -3738,7 +3718,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>0.69319665319178236</v>
+        <v>0.69247123425667623</v>
       </c>
     </row>
     <row r="457">
@@ -3746,7 +3726,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.74625781868938101</v>
+        <v>0.74557827237516006</v>
       </c>
     </row>
     <row r="458">
@@ -3754,7 +3734,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.82111998860048263</v>
+        <v>0.82057883936375142</v>
       </c>
     </row>
     <row r="459">
@@ -3762,7 +3742,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.85384631455160154</v>
+        <v>0.85313458433385836</v>
       </c>
     </row>
     <row r="460">
@@ -3770,7 +3750,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>0.92210542439895182</v>
+        <v>0.92138415679222085</v>
       </c>
     </row>
     <row r="461">
@@ -3778,7 +3758,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>0.92990230972315457</v>
+        <v>0.92918012494019953</v>
       </c>
     </row>
     <row r="462">
@@ -3786,7 +3766,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.036297309778142425</v>
+        <v>0.035872213196490595</v>
       </c>
     </row>
     <row r="463">
@@ -3794,7 +3774,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>0.19250721675736079</v>
+        <v>0.19207176174214982</v>
       </c>
     </row>
     <row r="464">
@@ -3802,7 +3782,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>0.37727869652548923</v>
+        <v>0.37681179606856052</v>
       </c>
     </row>
     <row r="465">
@@ -3810,7 +3790,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>0.53687979812751274</v>
+        <v>0.53645517865727621</v>
       </c>
     </row>
     <row r="466">
@@ -3818,7 +3798,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.64175701339063029</v>
+        <v>0.6413056964356485</v>
       </c>
     </row>
     <row r="467">
@@ -3826,7 +3806,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>0.63117908550041268</v>
+        <v>0.63072234125172377</v>
       </c>
     </row>
     <row r="468">
@@ -3834,7 +3814,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>0.73886501175540897</v>
+        <v>0.73822235187257845</v>
       </c>
     </row>
     <row r="469">
@@ -3842,7 +3822,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.80848875693604816</v>
+        <v>0.8077351158588183</v>
       </c>
     </row>
     <row r="470">
@@ -3850,7 +3830,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>0.85985228337153785</v>
+        <v>0.85883032889150779</v>
       </c>
     </row>
     <row r="471">
@@ -3858,7 +3838,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.88724650058034005</v>
+        <v>0.88597029113594961</v>
       </c>
     </row>
     <row r="472">
@@ -3866,7 +3846,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>0.9035075183442689</v>
+        <v>0.90199993516309862</v>
       </c>
     </row>
     <row r="473">
@@ -3874,7 +3854,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.8792544449483225</v>
+        <v>0.87783472431843446</v>
       </c>
     </row>
     <row r="474">
@@ -3882,7 +3862,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>-0.086110747729604781</v>
+        <v>-0.085945810823134086</v>
       </c>
     </row>
     <row r="475">
@@ -3890,7 +3870,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>0.10718744160252647</v>
+        <v>0.10742620841741907</v>
       </c>
     </row>
     <row r="476">
@@ -3898,7 +3878,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>0.83655811185787643</v>
+        <v>0.83964362567434203</v>
       </c>
     </row>
     <row r="477">
@@ -3906,7 +3886,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>0.49307747064313284</v>
+        <v>0.49281358360436911</v>
       </c>
     </row>
     <row r="478">
@@ -3914,7 +3894,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>0.48359455058969375</v>
+        <v>0.48332258614176127</v>
       </c>
     </row>
     <row r="479">
@@ -3922,7 +3902,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>0.63609086512906832</v>
+        <v>0.6355993831314708</v>
       </c>
     </row>
     <row r="480">
@@ -3930,7 +3910,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.73007204904733047</v>
+        <v>0.72918424468746157</v>
       </c>
     </row>
     <row r="481">
@@ -3938,7 +3918,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.83401284928754316</v>
+        <v>0.83289191147723607</v>
       </c>
     </row>
     <row r="482">
@@ -3946,7 +3926,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.85312145282280727</v>
+        <v>0.85161846681528175</v>
       </c>
     </row>
     <row r="483">
@@ -3954,7 +3934,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>0.79995583062850339</v>
+        <v>0.79841042696754061</v>
       </c>
     </row>
     <row r="484">
@@ -3962,7 +3942,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>0.7286770103368172</v>
+        <v>0.72705782577514155</v>
       </c>
     </row>
     <row r="485">
@@ -3970,7 +3950,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>-0.55337457007217428</v>
+        <v>-0.55294554580067146</v>
       </c>
     </row>
     <row r="486">
@@ -3978,7 +3958,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>-0.34119963863230729</v>
+        <v>-0.34076196022685878</v>
       </c>
     </row>
     <row r="487">
@@ -3986,7 +3966,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>-0.086910701762230327</v>
+        <v>-0.086590354484493828</v>
       </c>
     </row>
     <row r="488">
@@ -3994,7 +3974,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.14264103504584724</v>
+        <v>0.14251168821445809</v>
       </c>
     </row>
     <row r="489">
@@ -4002,7 +3982,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.13849871925430532</v>
+        <v>0.13836505037482585</v>
       </c>
     </row>
     <row r="490">
@@ -4010,7 +3990,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.4089547956994436</v>
+        <v>0.40864390964518621</v>
       </c>
     </row>
     <row r="491">
@@ -4018,7 +3998,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>0.60541980508315052</v>
+        <v>0.60476271732012044</v>
       </c>
     </row>
     <row r="492">
@@ -4026,7 +4006,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>0.71225382754333666</v>
+        <v>0.7109920677065511</v>
       </c>
     </row>
     <row r="493">
@@ -4034,7 +4014,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.72884761637061579</v>
+        <v>0.72751696120138432</v>
       </c>
     </row>
     <row r="494">
@@ -4042,7 +4022,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>0.61356979249459742</v>
+        <v>0.61216432202042936</v>
       </c>
     </row>
     <row r="495">
@@ -4050,7 +4030,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>0.47763062449997062</v>
+        <v>0.47630185960661892</v>
       </c>
     </row>
     <row r="496">
@@ -4058,7 +4038,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>-1.1013940826425981</v>
+        <v>-1.1006634847012906</v>
       </c>
     </row>
     <row r="497">
@@ -4066,7 +4046,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>-0.88999858385281805</v>
+        <v>-0.88953348584207714</v>
       </c>
     </row>
     <row r="498">
@@ -4074,7 +4054,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>-0.62795681143730397</v>
+        <v>-0.62769020274363485</v>
       </c>
     </row>
     <row r="499">
@@ -4082,7 +4062,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>-0.28433823690686999</v>
+        <v>-0.28455859696173136</v>
       </c>
     </row>
     <row r="500">
@@ -4090,7 +4070,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>-0.28849813714442224</v>
+        <v>-0.28872179544326254</v>
       </c>
     </row>
     <row r="501">
@@ -4098,7 +4078,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.12466642490229322</v>
+        <v>0.12416734297561315</v>
       </c>
     </row>
     <row r="502">
@@ -4106,7 +4086,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>0.39055642448750788</v>
+        <v>0.38966736198238533</v>
       </c>
     </row>
     <row r="503">
@@ -4114,7 +4094,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>0.49627099942079589</v>
+        <v>0.49514657041327137</v>
       </c>
     </row>
     <row r="504">
@@ -4122,7 +4102,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>0.5338515240618108</v>
+        <v>0.53287676787622318</v>
       </c>
     </row>
     <row r="505">
@@ -4130,7 +4110,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>0.42616120656321288</v>
+        <v>0.42525250662131364</v>
       </c>
     </row>
     <row r="506">
@@ -4138,7 +4118,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>0.23498054395205825</v>
+        <v>0.23398454514588304</v>
       </c>
     </row>
     <row r="507">
@@ -4146,7 +4126,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>-1.3328010440121758</v>
+        <v>-1.3319189866245817</v>
       </c>
     </row>
     <row r="508">
@@ -4154,7 +4134,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>-1.099932176519143</v>
+        <v>-1.0997184344994013</v>
       </c>
     </row>
     <row r="509">
@@ -4162,7 +4142,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>-0.67564642167125344</v>
+        <v>-0.67565298972791865</v>
       </c>
     </row>
     <row r="510">
@@ -4170,7 +4150,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>-0.67168581901899571</v>
+        <v>-0.67168834079351203</v>
       </c>
     </row>
     <row r="511">
@@ -4178,7 +4158,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>-0.16856445355473651</v>
+        <v>-0.16900810155000748</v>
       </c>
     </row>
     <row r="512">
@@ -4186,7 +4166,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>0.17789384730787119</v>
+        <v>0.17715659180203011</v>
       </c>
     </row>
     <row r="513">
@@ -4194,7 +4174,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>0.33896925322228622</v>
+        <v>0.33833705581639911</v>
       </c>
     </row>
     <row r="514">
@@ -4202,7 +4182,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>0.3035361673535677</v>
+        <v>0.30307554026238415</v>
       </c>
     </row>
     <row r="515">
@@ -4210,7 +4190,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>0.15908091252147322</v>
+        <v>0.15870469975498064</v>
       </c>
     </row>
     <row r="516">
@@ -4218,7 +4198,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>-1.6144180569140836</v>
+        <v>-1.613787626838622</v>
       </c>
     </row>
     <row r="517">
@@ -4226,7 +4206,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>-1.4966291977378254</v>
+        <v>-1.4964940301150451</v>
       </c>
     </row>
     <row r="518">
@@ -4234,7 +4214,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>-1.0125599184025305</v>
+        <v>-1.0128579821547747</v>
       </c>
     </row>
     <row r="519">
@@ -4242,7 +4222,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>-1.0083996026170721</v>
+        <v>-1.0086934603123221</v>
       </c>
     </row>
     <row r="520">
@@ -4250,7 +4230,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>-0.36361545537607426</v>
+        <v>-0.3640186220901549</v>
       </c>
     </row>
     <row r="521">
@@ -4258,7 +4238,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>0.02060769500635784</v>
+        <v>0.020220253103382296</v>
       </c>
     </row>
     <row r="522">
@@ -4266,7 +4246,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>0.20958051909206385</v>
+        <v>0.20950290406284838</v>
       </c>
     </row>
     <row r="523">
@@ -4274,7 +4254,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>0.11153165541012063</v>
+        <v>0.11161172373579355</v>
       </c>
     </row>
     <row r="524">
@@ -4282,7 +4262,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>-1.4846734448757013</v>
+        <v>-1.4843197645052131</v>
       </c>
     </row>
     <row r="525">
@@ -4290,7 +4270,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>-1.0049876611060347</v>
+        <v>-1.0050222962286324</v>
       </c>
     </row>
     <row r="526">
@@ -4298,7 +4278,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>-1.0013888255267211</v>
+        <v>-1.0014185082732701</v>
       </c>
     </row>
     <row r="527">
@@ -4306,7 +4286,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>-1.0265501908557593</v>
+        <v>-1.0265997852453472</v>
       </c>
     </row>
     <row r="528">
@@ -4314,7 +4294,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>-1.0274484039208724</v>
+        <v>-1.0274976966474538</v>
       </c>
     </row>
     <row r="529">
@@ -4322,7 +4302,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>-0.61349676441508127</v>
+        <v>-0.61210559539036269</v>
       </c>
     </row>
     <row r="530">
@@ -4330,7 +4310,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>-0.51043856473169791</v>
+        <v>-0.5084945217501633</v>
       </c>
     </row>
     <row r="531">
@@ -4338,7 +4318,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>-0.53710879461758076</v>
+        <v>-0.53522859039992277</v>
       </c>
     </row>
     <row r="532">
@@ -4346,7 +4326,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>-0.67097801323053341</v>
+        <v>-0.67068669504295264</v>
       </c>
     </row>
     <row r="533">
@@ -4354,7 +4334,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>-0.5290135060947383</v>
+        <v>-0.52810315959727083</v>
       </c>
     </row>
     <row r="534">
@@ -4362,7 +4342,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>-0.37913052732638725</v>
+        <v>-0.37747508757333409</v>
       </c>
     </row>
     <row r="535">
@@ -4370,7 +4350,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>-0.43063513875926301</v>
+        <v>-0.42904868882779529</v>
       </c>
     </row>
     <row r="536">
@@ -4378,7 +4358,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>-0.38071175703707016</v>
+        <v>-0.37870057863792977</v>
       </c>
     </row>
     <row r="537">
@@ -4386,7 +4366,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>-0.57537124934732964</v>
+        <v>-0.5761554545512666</v>
       </c>
     </row>
     <row r="538">
@@ -4394,7 +4374,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>-0.59312392069009501</v>
+        <v>-0.59353169463327449</v>
       </c>
     </row>
     <row r="539">
@@ -4402,7 +4382,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>-0.49787959840636059</v>
+        <v>-0.49785890358569435</v>
       </c>
     </row>
     <row r="540">
@@ -4410,7 +4390,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>-0.35055492692914381</v>
+        <v>-0.34999526778426637</v>
       </c>
     </row>
     <row r="541">
@@ -4418,7 +4398,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>-0.35195539248662744</v>
+        <v>-0.35133423508144834</v>
       </c>
     </row>
     <row r="542">
@@ -4426,7 +4406,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>-0.25175395105572995</v>
+        <v>-0.25062157919202122</v>
       </c>
     </row>
     <row r="543">
@@ -4434,7 +4414,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>-0.11933646368588609</v>
+        <v>-0.11816277274690644</v>
       </c>
     </row>
     <row r="544">
@@ -4442,7 +4422,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>-0.50859959642698582</v>
+        <v>-0.51020823299922025</v>
       </c>
     </row>
     <row r="545">
@@ -4450,7 +4430,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>-0.59446892403507468</v>
+        <v>-0.59559126596692569</v>
       </c>
     </row>
     <row r="546">
@@ -4458,7 +4438,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>-0.76075084023246753</v>
+        <v>-0.75695259265808734</v>
       </c>
     </row>
     <row r="547">
@@ -4466,7 +4446,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>-0.35601844311643466</v>
+        <v>-0.35611449477096341</v>
       </c>
     </row>
     <row r="548">
@@ -4474,7 +4454,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>-0.39450413418477792</v>
+        <v>-0.39461964714008324</v>
       </c>
     </row>
     <row r="549">
@@ -4482,7 +4462,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>-0.19865306475565569</v>
+        <v>-0.19836690155246817</v>
       </c>
     </row>
     <row r="550">
@@ -4490,7 +4470,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>0.051887114445233744</v>
+        <v>0.052743578668630171</v>
       </c>
     </row>
     <row r="551">
@@ -4498,7 +4478,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>0.21329039748177728</v>
+        <v>0.2144835900888383</v>
       </c>
     </row>
     <row r="552">
@@ -4506,7 +4486,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>-0.42368982728330384</v>
+        <v>-0.42585102015903215</v>
       </c>
     </row>
     <row r="553">
@@ -4514,7 +4494,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>-0.48282645302742705</v>
+        <v>-0.48487357861504399</v>
       </c>
     </row>
     <row r="554">
@@ -4522,7 +4502,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>-0.52421142536102572</v>
+        <v>-0.52591854997897547</v>
       </c>
     </row>
     <row r="555">
@@ -4530,7 +4510,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>-0.48251601332180255</v>
+        <v>-0.48365620553894723</v>
       </c>
     </row>
     <row r="556">
@@ -4538,7 +4518,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>-0.34744080352153395</v>
+        <v>-0.34813950898945861</v>
       </c>
     </row>
     <row r="557">
@@ -4546,7 +4526,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>-0.36471367881664785</v>
+        <v>-0.36542041936104275</v>
       </c>
     </row>
     <row r="558">
@@ -4554,7 +4534,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>-0.15530113104528176</v>
+        <v>-0.15555811010423937</v>
       </c>
     </row>
     <row r="559">
@@ -4562,7 +4542,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>0.14567432222796972</v>
+        <v>0.1460035720004039</v>
       </c>
     </row>
     <row r="560">
@@ -4570,7 +4550,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>0.39939234544077828</v>
+        <v>0.39997712321855955</v>
       </c>
     </row>
     <row r="561">
@@ -4578,7 +4558,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>-0.28158451541030788</v>
+        <v>-0.28341656851921321</v>
       </c>
     </row>
     <row r="562">
@@ -4586,7 +4566,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>-0.27806484645155932</v>
+        <v>-0.27999004616788636</v>
       </c>
     </row>
     <row r="563">
@@ -4594,7 +4574,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>-0.28097776849016198</v>
+        <v>-0.28275341408711985</v>
       </c>
     </row>
     <row r="564">
@@ -4602,7 +4582,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>-0.20715565608996062</v>
+        <v>-0.20863751296815303</v>
       </c>
     </row>
     <row r="565">
@@ -4610,7 +4590,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>-0.12696854204038488</v>
+        <v>-0.1280736694599886</v>
       </c>
     </row>
     <row r="566">
@@ -4618,7 +4598,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>-0.15377743724311571</v>
+        <v>-0.154905048774689</v>
       </c>
     </row>
     <row r="567">
@@ -4626,7 +4606,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>0.020599536643878317</v>
+        <v>0.019953734440674824</v>
       </c>
     </row>
     <row r="568">
@@ -4634,7 +4614,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>0.27093167063457979</v>
+        <v>0.27063412484085081</v>
       </c>
     </row>
     <row r="569">
@@ -4642,7 +4622,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>0.49202660533751319</v>
+        <v>0.49209541685605512</v>
       </c>
     </row>
     <row r="570">
@@ -4650,7 +4630,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>0.59735388550612689</v>
+        <v>0.59743434993032318</v>
       </c>
     </row>
     <row r="571">
@@ -4658,7 +4638,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>-0.21282939489555847</v>
+        <v>-0.21696109777080455</v>
       </c>
     </row>
     <row r="572">
@@ -4666,7 +4646,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>-0.10966522101646289</v>
+        <v>-0.11079012588759295</v>
       </c>
     </row>
     <row r="573">
@@ -4674,7 +4654,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>-0.061832154934542367</v>
+        <v>-0.063352558632303421</v>
       </c>
     </row>
     <row r="574">
@@ -4682,7 +4662,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>-0.0031716001864516103</v>
+        <v>-0.0044932358258140629</v>
       </c>
     </row>
     <row r="575">
@@ -4690,7 +4670,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>0.098088949508330039</v>
+        <v>0.097096179758179607</v>
       </c>
     </row>
     <row r="576">
@@ -4698,7 +4678,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>0.076963254064223371</v>
+        <v>0.07595122882557799</v>
       </c>
     </row>
     <row r="577">
@@ -4706,7 +4686,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>0.22959510405580413</v>
+        <v>0.22889625349557927</v>
       </c>
     </row>
     <row r="578">
@@ -4714,7 +4694,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>0.42808160361060427</v>
+        <v>0.42754719178454687</v>
       </c>
     </row>
     <row r="579">
@@ -4722,7 +4702,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>0.59237135773488936</v>
+        <v>0.59188137048882539</v>
       </c>
     </row>
     <row r="580">
@@ -4730,7 +4710,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>0.6341243574411769</v>
+        <v>0.63346159745476227</v>
       </c>
     </row>
     <row r="581">
@@ -4738,7 +4718,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>0.71545057248643618</v>
+        <v>0.71460061232553374</v>
       </c>
     </row>
     <row r="582">
@@ -4746,7 +4726,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>-0.24657621828479884</v>
+        <v>-0.25073235676536582</v>
       </c>
     </row>
     <row r="583">
@@ -4754,7 +4734,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>-0.14129354101412467</v>
+        <v>-0.14244585683797961</v>
       </c>
     </row>
     <row r="584">
@@ -4762,7 +4742,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>-0.092765383774188109</v>
+        <v>-0.094318795455104465</v>
       </c>
     </row>
     <row r="585">
@@ -4770,7 +4750,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>-0.038123518677031835</v>
+        <v>-0.039485017697117951</v>
       </c>
     </row>
     <row r="586">
@@ -4778,7 +4758,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>0.064289618328332368</v>
+        <v>0.063255052248329183</v>
       </c>
     </row>
     <row r="587">
@@ -4786,7 +4766,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>0.046404137817523956</v>
+        <v>0.045357915420018435</v>
       </c>
     </row>
     <row r="588">
@@ -4794,7 +4774,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>0.1984848853923715</v>
+        <v>0.19775800743423011</v>
       </c>
     </row>
     <row r="589">
@@ -4802,7 +4782,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>0.40614296321959897</v>
+        <v>0.40558042115271975</v>
       </c>
     </row>
     <row r="590">
@@ -4810,7 +4790,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>0.55945795297460488</v>
+        <v>0.55891367641216205</v>
       </c>
     </row>
     <row r="591">
@@ -4818,7 +4798,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>0.60544072481537514</v>
+        <v>0.60472263078766597</v>
       </c>
     </row>
     <row r="592">
@@ -4826,7 +4806,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>0.70565905321632083</v>
+        <v>0.70478603071219836</v>
       </c>
     </row>
     <row r="593">
@@ -4834,7 +4814,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>-0.33894603462547945</v>
+        <v>-0.3393347039488116</v>
       </c>
     </row>
     <row r="594">
@@ -4842,7 +4822,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>-0.24615960377664112</v>
+        <v>-0.24657814614223147</v>
       </c>
     </row>
     <row r="595">
@@ -4850,7 +4830,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>-0.12971589437654787</v>
+        <v>-0.13050948987701094</v>
       </c>
     </row>
     <row r="596">
@@ -4858,7 +4838,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>0.35882200824998328</v>
+        <v>0.35983268399194251</v>
       </c>
     </row>
     <row r="597">
@@ -4866,7 +4846,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>0.12328530439467274</v>
+        <v>0.12283263014336319</v>
       </c>
     </row>
     <row r="598">
@@ -4874,7 +4854,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>0.11854585860040893</v>
+        <v>0.11809249081900142</v>
       </c>
     </row>
     <row r="599">
@@ -4882,7 +4862,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>0.27034145333443715</v>
+        <v>0.2698187804572571</v>
       </c>
     </row>
     <row r="600">
@@ -4890,7 +4870,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>0.44867493358077365</v>
+        <v>0.4479713743424043</v>
       </c>
     </row>
     <row r="601">
@@ -4898,7 +4878,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>0.58738267494742791</v>
+        <v>0.58648643712187443</v>
       </c>
     </row>
     <row r="602">
@@ -4906,7 +4886,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>0.59418870359943665</v>
+        <v>0.59282670571816465</v>
       </c>
     </row>
     <row r="603">
@@ -4914,7 +4894,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>0.64017732042871156</v>
+        <v>0.63862057974836461</v>
       </c>
     </row>
     <row r="604">
@@ -4922,7 +4902,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>-0.59269852710846405</v>
+        <v>-0.59241475842943958</v>
       </c>
     </row>
     <row r="605">
@@ -4930,7 +4910,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>-0.53766849711096032</v>
+        <v>-0.53769493495043874</v>
       </c>
     </row>
     <row r="606">
@@ -4938,7 +4918,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>-0.39987001463389849</v>
+        <v>-0.400054032524081</v>
       </c>
     </row>
     <row r="607">
@@ -4946,7 +4926,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>-0.23095530316181961</v>
+        <v>-0.23103073867788124</v>
       </c>
     </row>
     <row r="608">
@@ -4954,7 +4934,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>-0.029131051013942737</v>
+        <v>-0.02925352847068912</v>
       </c>
     </row>
     <row r="609">
@@ -4962,7 +4942,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>-0.030447374489195208</v>
+        <v>-0.030566063115193241</v>
       </c>
     </row>
     <row r="610">
@@ -4970,7 +4950,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>0.20478949658675058</v>
+        <v>0.20448587328729276</v>
       </c>
     </row>
     <row r="611">
@@ -4978,7 +4958,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>0.37947543052112914</v>
+        <v>0.37868179915140532</v>
       </c>
     </row>
     <row r="612">
@@ -4986,7 +4966,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>0.53196672088316066</v>
+        <v>0.53103192719252923</v>
       </c>
     </row>
     <row r="613">
@@ -4994,7 +4974,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>0.57167020562717796</v>
+        <v>0.5702722088845068</v>
       </c>
     </row>
     <row r="614">
@@ -5002,7 +4982,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>0.58813023624642236</v>
+        <v>0.58644344152374239</v>
       </c>
     </row>
     <row r="615">
@@ -5010,7 +4990,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>-1.1002817641632299</v>
+        <v>-1.099595684200313</v>
       </c>
     </row>
     <row r="616">
@@ -5018,7 +4998,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>-1.0222322645891493</v>
+        <v>-1.0218186516724177</v>
       </c>
     </row>
     <row r="617">
@@ -5026,7 +5006,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>-0.85854854017616666</v>
+        <v>-0.85823751213988198</v>
       </c>
     </row>
     <row r="618">
@@ -5034,7 +5014,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>-0.61978395599069813</v>
+        <v>-0.61945905134166301</v>
       </c>
     </row>
     <row r="619">
@@ -5042,7 +5022,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>-0.34169938044083981</v>
+        <v>-0.34174060541634199</v>
       </c>
     </row>
     <row r="620">
@@ -5050,7 +5030,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>-0.34208198945405033</v>
+        <v>-0.34212568536244231</v>
       </c>
     </row>
     <row r="621">
@@ -5058,7 +5038,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>-0.01741295354746503</v>
+        <v>-0.017576245967119829</v>
       </c>
     </row>
     <row r="622">
@@ -5066,7 +5046,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>0.24211698687805416</v>
+        <v>0.24150433935990012</v>
       </c>
     </row>
     <row r="623">
@@ -5074,7 +5054,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>0.39461286091980813</v>
+        <v>0.39350899013697405</v>
       </c>
     </row>
     <row r="624">
@@ -5082,7 +5062,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>0.48723495283528445</v>
+        <v>0.48583563896166942</v>
       </c>
     </row>
     <row r="625">
@@ -5090,7 +5070,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>0.45753537550736795</v>
+        <v>0.45614623588218817</v>
       </c>
     </row>
     <row r="626">
@@ -5098,7 +5078,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>-1.5062725578005849</v>
+        <v>-1.5054127039113918</v>
       </c>
     </row>
     <row r="627">
@@ -5106,7 +5086,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>-1.3701371637882649</v>
+        <v>-1.369554461908455</v>
       </c>
     </row>
     <row r="628">
@@ -5114,7 +5094,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>-1.0976167923748337</v>
+        <v>-1.097183311350493</v>
       </c>
     </row>
     <row r="629">
@@ -5122,7 +5102,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>-0.74635657191459004</v>
+        <v>-0.74634843867434242</v>
       </c>
     </row>
     <row r="630">
@@ -5130,7 +5110,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>-0.74875612519168444</v>
+        <v>-0.74875221171180972</v>
       </c>
     </row>
     <row r="631">
@@ -5138,7 +5118,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>-0.29443462117170077</v>
+        <v>-0.29458597799769926</v>
       </c>
     </row>
     <row r="632">
@@ -5146,7 +5126,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>0.026235154157200697</v>
+        <v>0.025528734063530172</v>
       </c>
     </row>
     <row r="633">
@@ -5154,7 +5134,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>0.22187621371643806</v>
+        <v>0.22092904167233746</v>
       </c>
     </row>
     <row r="634">
@@ -5162,7 +5142,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>0.25977118445700548</v>
+        <v>0.25884721944888373</v>
       </c>
     </row>
     <row r="635">
@@ -5170,7 +5150,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>0.24365493163624247</v>
+        <v>0.24267259907359193</v>
       </c>
     </row>
     <row r="636">
@@ -5178,7 +5158,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>-1.8727979524712035</v>
+        <v>-1.8716710880546379</v>
       </c>
     </row>
     <row r="637">
@@ -5186,7 +5166,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>-1.771541841442869</v>
+        <v>-1.7704879511420346</v>
       </c>
     </row>
     <row r="638">
@@ -5194,7 +5174,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>-1.512743814537836</v>
+        <v>-1.5122038113988616</v>
       </c>
     </row>
     <row r="639">
@@ -5202,7 +5182,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>-1.1005154896867955</v>
+        <v>-1.100318063741103</v>
       </c>
     </row>
     <row r="640">
@@ -5210,7 +5190,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>-1.1001786386263566</v>
+        <v>-1.0999826097481196</v>
       </c>
     </row>
     <row r="641">
@@ -5218,7 +5198,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>-0.55573933004445464</v>
+        <v>-0.55586544809123306</v>
       </c>
     </row>
     <row r="642">
@@ -5226,7 +5206,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>-0.11168287249215721</v>
+        <v>-0.11199896118756683</v>
       </c>
     </row>
     <row r="643">
@@ -5234,7 +5214,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>0.083810221824371006</v>
+        <v>0.083330832776404268</v>
       </c>
     </row>
     <row r="644">
@@ -5242,7 +5222,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>0.11674595842246029</v>
+        <v>0.11614849014013644</v>
       </c>
     </row>
     <row r="645">
@@ -5250,7 +5230,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>0.055744379062392831</v>
+        <v>0.05521751817865346</v>
       </c>
     </row>
     <row r="646">
@@ -5258,7 +5238,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>-2.0703503796986102</v>
+        <v>-2.0687909384681422</v>
       </c>
     </row>
     <row r="647">
@@ -5266,7 +5246,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>-1.9968097909829925</v>
+        <v>-1.9956910975409545</v>
       </c>
     </row>
     <row r="648">
@@ -5274,7 +5254,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>-1.8271131770509352</v>
+        <v>-1.8263773474853036</v>
       </c>
     </row>
     <row r="649">
@@ -5282,7 +5262,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>-1.3739535664090832</v>
+        <v>-1.3736370046209729</v>
       </c>
     </row>
     <row r="650">
@@ -5290,7 +5270,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>-1.3783286231910388</v>
+        <v>-1.3780151400314966</v>
       </c>
     </row>
     <row r="651">
@@ -5298,7 +5278,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>-0.74749845338253207</v>
+        <v>-0.74745893367169547</v>
       </c>
     </row>
     <row r="652">
@@ -5306,7 +5286,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>-0.29100685677107668</v>
+        <v>-0.29099007122948883</v>
       </c>
     </row>
     <row r="653">
@@ -5314,7 +5294,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>-0.050530755498797764</v>
+        <v>-0.050327241732204799</v>
       </c>
     </row>
     <row r="654">
@@ -5322,7 +5302,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>-0.028392257205264653</v>
+        <v>-0.028308963584604108</v>
       </c>
     </row>
     <row r="655">
@@ -5330,7 +5310,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>-1.9893279340606325</v>
+        <v>-1.9879918919963475</v>
       </c>
     </row>
     <row r="656">
@@ -5338,7 +5318,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>-1.7849231516240227</v>
+        <v>-1.7840289725979286</v>
       </c>
     </row>
     <row r="657">
@@ -5346,7 +5326,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>-1.3153559304368574</v>
+        <v>-1.3147989695144675</v>
       </c>
     </row>
     <row r="658">
@@ -5354,7 +5334,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>-1.3180104830534969</v>
+        <v>-1.3174531855418734</v>
       </c>
     </row>
     <row r="659">
@@ -5362,7 +5342,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>-0.73755695069082416</v>
+        <v>-0.73705568079382711</v>
       </c>
     </row>
     <row r="660">
@@ -5370,7 +5350,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>-0.33403281650932459</v>
+        <v>-0.33356181451218958</v>
       </c>
     </row>
     <row r="661">
@@ -5378,7 +5358,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>-2.0006938306717337</v>
+        <v>-1.9993559499331766</v>
       </c>
     </row>
     <row r="662">
@@ -5386,7 +5366,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>-1.7997688333847395</v>
+        <v>-1.7988828102994894</v>
       </c>
     </row>
     <row r="663">
@@ -5394,7 +5374,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>-1.3270796050864564</v>
+        <v>-1.3265274550342523</v>
       </c>
     </row>
     <row r="664">
@@ -5402,7 +5382,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>-1.3254877862071421</v>
+        <v>-1.324928443145424</v>
       </c>
     </row>
     <row r="665">
@@ -5410,7 +5390,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>-0.74213357393633406</v>
+        <v>-0.74162690851079549</v>
       </c>
     </row>
     <row r="666">
@@ -5418,7 +5398,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>-0.32784429744762078</v>
+        <v>-0.32735206866726135</v>
       </c>
     </row>
     <row r="667">
@@ -5426,7 +5406,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>-0.84337559805184947</v>
+        <v>-0.84331430980359356</v>
       </c>
     </row>
     <row r="668">
@@ -5434,7 +5414,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>-0.85794017819245627</v>
+        <v>-0.85785321093513978</v>
       </c>
     </row>
     <row r="669">
@@ -5442,7 +5422,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>-1.2142977836848323</v>
+        <v>-1.2158785229994105</v>
       </c>
     </row>
     <row r="670">
@@ -5450,7 +5430,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>-1.1559243013347125</v>
+        <v>-1.1570051741129144</v>
       </c>
     </row>
     <row r="671">
@@ -5458,7 +5438,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>-0.98533602330408565</v>
+        <v>-0.98591302111531298</v>
       </c>
     </row>
     <row r="672">
@@ -5466,7 +5446,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>-1.0079386747771713</v>
+        <v>-1.0085217384817076</v>
       </c>
     </row>
     <row r="673">
@@ -5474,7 +5454,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>-0.69707426716352505</v>
+        <v>-0.6972186050430117</v>
       </c>
     </row>
     <row r="674">
@@ -5482,7 +5462,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>-1.0927832386585197</v>
+        <v>-1.0951183522650481</v>
       </c>
     </row>
     <row r="675">
@@ -5490,7 +5470,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>-1.1666137797300506</v>
+        <v>-1.1685653772448161</v>
       </c>
     </row>
     <row r="676">
@@ -5498,7 +5478,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>-1.122669421400629</v>
+        <v>-1.1244155305855696</v>
       </c>
     </row>
     <row r="677">
@@ -5506,7 +5486,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>-0.95631377450964561</v>
+        <v>-0.95751031215420002</v>
       </c>
     </row>
     <row r="678">
@@ -5514,7 +5494,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>-0.98544422066524129</v>
+        <v>-0.98665822522918922</v>
       </c>
     </row>
     <row r="679">
@@ -5522,7 +5502,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>-0.69942380395775916</v>
+        <v>-0.70004810580425714</v>
       </c>
     </row>
     <row r="680">
@@ -5530,7 +5510,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>-0.35197882373817957</v>
+        <v>-0.35211429555573603</v>
       </c>
     </row>
     <row r="681">
@@ -5538,7 +5518,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>0.0052354932499503069</v>
+        <v>0.0054833256684765352</v>
       </c>
     </row>
     <row r="682">
@@ -5546,7 +5526,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>-0.82545512290304457</v>
+        <v>-0.82730900492650339</v>
       </c>
     </row>
     <row r="683">
@@ -5554,7 +5534,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>-0.90105257399516558</v>
+        <v>-0.90317354059579147</v>
       </c>
     </row>
     <row r="684">
@@ -5562,7 +5542,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>-0.96727685154885024</v>
+        <v>-0.96939779151312622</v>
       </c>
     </row>
     <row r="685">
@@ -5570,7 +5550,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>-0.97900073597291593</v>
+        <v>-0.98082238214519091</v>
       </c>
     </row>
     <row r="686">
@@ -5578,7 +5558,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>-0.84233851653061387</v>
+        <v>-0.84372679901563996</v>
       </c>
     </row>
     <row r="687">
@@ -5586,7 +5566,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>-0.86174867139499711</v>
+        <v>-0.86315520146326097</v>
       </c>
     </row>
     <row r="688">
@@ -5594,7 +5574,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>-0.57018149218391301</v>
+        <v>-0.57100159302894093</v>
       </c>
     </row>
     <row r="689">
@@ -5602,7 +5582,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>-0.22744786017210902</v>
+        <v>-0.22800245681100506</v>
       </c>
     </row>
     <row r="690">
@@ -5610,7 +5590,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>0.086451950725386154</v>
+        <v>0.086024069830177088</v>
       </c>
     </row>
     <row r="691">
@@ -5618,7 +5598,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>-0.74751842832480453</v>
+        <v>-0.74877231735876415</v>
       </c>
     </row>
     <row r="692">
@@ -5626,7 +5606,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>-0.7134973905104145</v>
+        <v>-0.71489305989884233</v>
       </c>
     </row>
     <row r="693">
@@ -5634,7 +5614,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>-0.83212181595427692</v>
+        <v>-0.83376305401201833</v>
       </c>
     </row>
     <row r="694">
@@ -5642,7 +5622,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>-0.82304351742820681</v>
+        <v>-0.8243620565567783</v>
       </c>
     </row>
     <row r="695">
@@ -5650,7 +5630,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>-0.65657483499640279</v>
+        <v>-0.65760919887017399</v>
       </c>
     </row>
     <row r="696">
@@ -5658,7 +5638,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>-0.67053192543364326</v>
+        <v>-0.67158298632373936</v>
       </c>
     </row>
     <row r="697">
@@ -5666,7 +5646,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>-0.37406696293104974</v>
+        <v>-0.37482190750508054</v>
       </c>
     </row>
     <row r="698">
@@ -5674,7 +5654,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>-0.081461392227519525</v>
+        <v>-0.082170576451328595</v>
       </c>
     </row>
     <row r="699">
@@ -5682,7 +5662,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>0.18565118684413351</v>
+        <v>0.1849478348475892</v>
       </c>
     </row>
     <row r="700">
@@ -5690,7 +5670,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>0.34858169161942859</v>
+        <v>0.34783318692487947</v>
       </c>
     </row>
     <row r="701">
@@ -5698,7 +5678,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>-0.78611375079398604</v>
+        <v>-0.78738640770219093</v>
       </c>
     </row>
     <row r="702">
@@ -5706,7 +5686,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>-0.75640896471286212</v>
+        <v>-0.75783011817323342</v>
       </c>
     </row>
     <row r="703">
@@ -5714,7 +5694,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>-0.87847431258983089</v>
+        <v>-0.88014858612147384</v>
       </c>
     </row>
     <row r="704">
@@ -5722,7 +5702,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>-0.87730732998429706</v>
+        <v>-0.87866472897357484</v>
       </c>
     </row>
     <row r="705">
@@ -5730,7 +5710,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>-0.68601669389035147</v>
+        <v>-0.68707302652634827</v>
       </c>
     </row>
     <row r="706">
@@ -5738,7 +5718,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>-0.68724370853594419</v>
+        <v>-0.68830642993628555</v>
       </c>
     </row>
     <row r="707">
@@ -5746,7 +5726,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>-0.38906978911448703</v>
+        <v>-0.38984101477454358</v>
       </c>
     </row>
     <row r="708">
@@ -5754,7 +5734,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>-0.092257789084429484</v>
+        <v>-0.092978116053811871</v>
       </c>
     </row>
     <row r="709">
@@ -5762,7 +5742,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>0.16501847985550519</v>
+        <v>0.16427928886979104</v>
       </c>
     </row>
     <row r="710">
@@ -5770,7 +5750,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>0.32374619963018619</v>
+        <v>0.32295651570986739</v>
       </c>
     </row>
     <row r="711">
@@ -5778,7 +5758,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>-0.81366639875604163</v>
+        <v>-0.81407455746199475</v>
       </c>
     </row>
     <row r="712">
@@ -5786,7 +5766,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>-0.83708271397615253</v>
+        <v>-0.83756164800761435</v>
       </c>
     </row>
     <row r="713">
@@ -5794,7 +5774,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>-0.9017564258488403</v>
+        <v>-0.90280488728649411</v>
       </c>
     </row>
     <row r="714">
@@ -5802,7 +5782,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>-0.87430168781107354</v>
+        <v>-0.87513067071521433</v>
       </c>
     </row>
     <row r="715">
@@ -5810,7 +5790,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>-0.6242744095069811</v>
+        <v>-0.62471991185739051</v>
       </c>
     </row>
     <row r="716">
@@ -5818,7 +5798,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>-0.61876104055607162</v>
+        <v>-0.61920799822372041</v>
       </c>
     </row>
     <row r="717">
@@ -5826,7 +5806,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>-0.29994069979642718</v>
+        <v>-0.3004783127568621</v>
       </c>
     </row>
     <row r="718">
@@ -5834,7 +5814,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>0.0020705916503243448</v>
+        <v>0.0013839707789107516</v>
       </c>
     </row>
     <row r="719">
@@ -5842,7 +5822,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>0.21983061611817462</v>
+        <v>0.21898264143917073</v>
       </c>
     </row>
     <row r="720">
@@ -5850,7 +5830,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>0.34933631507545421</v>
+        <v>0.34821276081209657</v>
       </c>
     </row>
     <row r="721">
@@ -5858,7 +5838,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>0.45439807415355105</v>
+        <v>0.45294551703587421</v>
       </c>
     </row>
     <row r="722">
@@ -5866,7 +5846,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>-0.99184182689566958</v>
+        <v>-0.99158911533022187</v>
       </c>
     </row>
     <row r="723">
@@ -5874,7 +5854,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>-1.1080194274521651</v>
+        <v>-1.1078122991522752</v>
       </c>
     </row>
     <row r="724">
@@ -5882,7 +5862,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>-1.0689243458051625</v>
+        <v>-1.0691247110871742</v>
       </c>
     </row>
     <row r="725">
@@ -5890,7 +5870,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>-0.96837168967764387</v>
+        <v>-0.96836686594893673</v>
       </c>
     </row>
     <row r="726">
@@ -5898,7 +5878,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>-0.70600970568053711</v>
+        <v>-0.70624976195992195</v>
       </c>
     </row>
     <row r="727">
@@ -5906,7 +5886,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>-0.70296244905067329</v>
+        <v>-0.70320611413971723</v>
       </c>
     </row>
     <row r="728">
@@ -5914,7 +5894,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>-0.33571829299448341</v>
+        <v>-0.33605560202640805</v>
       </c>
     </row>
     <row r="729">
@@ -5922,7 +5902,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>-0.026073830201002068</v>
+        <v>-0.026657589015427963</v>
       </c>
     </row>
     <row r="730">
@@ -5930,7 +5910,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>0.18779771046277485</v>
+        <v>0.18699466637947551</v>
       </c>
     </row>
     <row r="731">
@@ -5938,7 +5918,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>0.316485926461962</v>
+        <v>0.31524315312947726</v>
       </c>
     </row>
     <row r="732">
@@ -5946,7 +5926,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>0.40509734240465828</v>
+        <v>0.40345634410217862</v>
       </c>
     </row>
     <row r="733">
@@ -5954,7 +5934,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>-1.4341649728576857</v>
+        <v>-1.4334113807164857</v>
       </c>
     </row>
     <row r="734">
@@ -5962,7 +5942,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>-1.518754297802509</v>
+        <v>-1.5182511157853937</v>
       </c>
     </row>
     <row r="735">
@@ -5970,7 +5950,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>-1.4426863473055889</v>
+        <v>-1.4423610762081378</v>
       </c>
     </row>
     <row r="736">
@@ -5978,7 +5958,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>-1.2515940729430621</v>
+        <v>-1.2513129644054328</v>
       </c>
     </row>
     <row r="737">
@@ -5986,7 +5966,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>-0.97831457043674142</v>
+        <v>-0.9781143445194378</v>
       </c>
     </row>
     <row r="738">
@@ -5994,7 +5974,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>-0.97931861798793984</v>
+        <v>-0.979122648336473</v>
       </c>
     </row>
     <row r="739">
@@ -6002,7 +5982,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>-0.53071373952006973</v>
+        <v>-0.5307918846991182</v>
       </c>
     </row>
     <row r="740">
@@ -6010,7 +5990,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>-0.17174475654806495</v>
+        <v>-0.17218254807478697</v>
       </c>
     </row>
     <row r="741">
@@ -6018,7 +5998,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>0.048706281597160721</v>
+        <v>0.047848607987119721</v>
       </c>
     </row>
     <row r="742">
@@ -6026,7 +6006,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>0.1905902693380295</v>
+        <v>0.18947963155423064</v>
       </c>
     </row>
     <row r="743">
@@ -6034,7 +6014,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>0.26516060543947728</v>
+        <v>0.26368447049018023</v>
       </c>
     </row>
     <row r="744">
@@ -6042,7 +6022,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>-1.8636682491568417</v>
+        <v>-1.8625726499691206</v>
       </c>
     </row>
     <row r="745">
@@ -6050,7 +6030,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>-1.9089441303818242</v>
+        <v>-1.90802019720102</v>
       </c>
     </row>
     <row r="746">
@@ -6058,7 +6038,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>-1.7911181125733089</v>
+        <v>-1.7905393015236433</v>
       </c>
     </row>
     <row r="747">
@@ -6066,7 +6046,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>-1.5603374392259421</v>
+        <v>-1.5597561966835867</v>
       </c>
     </row>
     <row r="748">
@@ -6074,7 +6054,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>-1.2033545257424194</v>
+        <v>-1.2031092934968088</v>
       </c>
     </row>
     <row r="749">
@@ -6082,7 +6062,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>-1.2049907856200548</v>
+        <v>-1.204748335529237</v>
       </c>
     </row>
     <row r="750">
@@ -6090,7 +6070,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>-0.7428542741116716</v>
+        <v>-0.74275423212650249</v>
       </c>
     </row>
     <row r="751">
@@ -6098,7 +6078,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>-0.34470187915654338</v>
+        <v>-0.34494373974145021</v>
       </c>
     </row>
     <row r="752">
@@ -6106,7 +6086,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>-0.095003991059989065</v>
+        <v>-0.095552999677014014</v>
       </c>
     </row>
     <row r="753">
@@ -6114,7 +6094,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>0.037055815759874572</v>
+        <v>0.036324498547926201</v>
       </c>
     </row>
     <row r="754">
@@ -6122,7 +6102,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>0.035728288954962696</v>
+        <v>0.034837642925555898</v>
       </c>
     </row>
     <row r="755">
@@ -6130,7 +6110,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>-2.1261494977668058</v>
+        <v>-2.1245300342067166</v>
       </c>
     </row>
     <row r="756">
@@ -6138,7 +6118,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>-2.1257395508848038</v>
+        <v>-2.1243463347994869</v>
       </c>
     </row>
     <row r="757">
@@ -6146,7 +6126,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>-2.026711195156683</v>
+        <v>-2.0253941218762996</v>
       </c>
     </row>
     <row r="758">
@@ -6154,7 +6134,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>-1.7465643578349701</v>
+        <v>-1.7456345504397461</v>
       </c>
     </row>
     <row r="759">
@@ -6162,7 +6142,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>-1.401058345253968</v>
+        <v>-1.4003731959283252</v>
       </c>
     </row>
     <row r="760">
@@ -6170,7 +6150,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>-1.4028086086616156</v>
+        <v>-1.4021261755852295</v>
       </c>
     </row>
     <row r="761">
@@ -6178,7 +6158,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>-0.9108886758677206</v>
+        <v>-0.91036754274756659</v>
       </c>
     </row>
     <row r="762">
@@ -6186,7 +6166,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>-0.45648156249511557</v>
+        <v>-0.45639763773728781</v>
       </c>
     </row>
     <row r="763">
@@ -6194,7 +6174,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>-0.19774034478353592</v>
+        <v>-0.19772624193860772</v>
       </c>
     </row>
     <row r="764">
@@ -6202,7 +6182,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>-0.0864204446117013</v>
+        <v>-0.086660261243906841</v>
       </c>
     </row>
     <row r="765">
@@ -6210,7 +6190,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>-0.10774786973083383</v>
+        <v>-0.10827203911539429</v>
       </c>
     </row>
     <row r="766">
@@ -6218,7 +6198,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>-2.2539578991207132</v>
+        <v>-2.2521040430527788</v>
       </c>
     </row>
     <row r="767">
@@ -6226,7 +6206,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>-2.2065498065408682</v>
+        <v>-2.2048343578529308</v>
       </c>
     </row>
     <row r="768">
@@ -6234,7 +6214,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>-2.0914309348848645</v>
+        <v>-2.0898118130456655</v>
       </c>
     </row>
     <row r="769">
@@ -6242,7 +6222,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>-1.8705274435736878</v>
+        <v>-1.8691389288752416</v>
       </c>
     </row>
     <row r="770">
@@ -6250,7 +6230,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>-1.5072337063997723</v>
+        <v>-1.5063160801324451</v>
       </c>
     </row>
     <row r="771">
@@ -6258,7 +6238,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>-1.5103032456577998</v>
+        <v>-1.5093864476251393</v>
       </c>
     </row>
     <row r="772">
@@ -6266,7 +6246,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>-1.0245496585797567</v>
+        <v>-1.023904261519696</v>
       </c>
     </row>
     <row r="773">
@@ -6274,7 +6254,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>-0.59132435508395942</v>
+        <v>-0.59087940952430873</v>
       </c>
     </row>
     <row r="774">
@@ -6282,7 +6262,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>-0.30844228810843027</v>
+        <v>-0.30804300888423108</v>
       </c>
     </row>
     <row r="775">
@@ -6290,7 +6270,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>-0.23665227258382054</v>
+        <v>-0.23628368847029546</v>
       </c>
     </row>
     <row r="776">
@@ -6298,7 +6278,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>-2.1607973643354739</v>
+        <v>-2.158847275307449</v>
       </c>
     </row>
     <row r="777">
@@ -6306,7 +6286,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>-2.0200014282537349</v>
+        <v>-2.0182430397903586</v>
       </c>
     </row>
     <row r="778">
@@ -6314,7 +6294,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>-1.7687011906074963</v>
+        <v>-1.7672061270016326</v>
       </c>
     </row>
     <row r="779">
@@ -6322,7 +6302,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>-0.99617348881221357</v>
+        <v>-0.99511204259669461</v>
       </c>
     </row>
     <row r="780">
@@ -6330,7 +6310,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>-0.62478678022356871</v>
+        <v>-0.62384420819395225</v>
       </c>
     </row>
     <row r="781">
@@ -6338,7 +6318,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>-2.1477461012509109</v>
+        <v>-2.1457692236848307</v>
       </c>
     </row>
     <row r="782">
@@ -6346,7 +6326,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>-2.0182159317697028</v>
+        <v>-2.0164495969141996</v>
       </c>
     </row>
     <row r="783">
@@ -6354,7 +6334,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>-1.7720250422509498</v>
+        <v>-1.7705285214940103</v>
       </c>
     </row>
     <row r="784">
@@ -6362,7 +6342,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>-0.98236476989085986</v>
+        <v>-0.98128013660137825</v>
       </c>
     </row>
     <row r="785">
@@ -6370,7 +6350,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>-0.60030176426421822</v>
+        <v>-0.5993262370603254</v>
       </c>
     </row>
     <row r="786">
@@ -6378,7 +6358,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>-1.7185417906415645</v>
+        <v>-1.720723595680675</v>
       </c>
     </row>
     <row r="787">
@@ -6386,7 +6366,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>-1.665052327342786</v>
+        <v>-1.6668038164864205</v>
       </c>
     </row>
     <row r="788">
@@ -6394,7 +6374,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>-1.4520962850053092</v>
+        <v>-1.4534756564561764</v>
       </c>
     </row>
     <row r="789">
@@ -6402,7 +6382,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>-1.443386813844338</v>
+        <v>-1.4447555300007342</v>
       </c>
     </row>
     <row r="790">
@@ -6410,7 +6390,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>-1.5336777146581182</v>
+        <v>-1.5357113583538993</v>
       </c>
     </row>
     <row r="791">
@@ -6418,7 +6398,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>-1.6704492262103918</v>
+        <v>-1.6725646603821382</v>
       </c>
     </row>
     <row r="792">
@@ -6426,7 +6406,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>-1.6671218896864266</v>
+        <v>-1.6688395585332469</v>
       </c>
     </row>
     <row r="793">
@@ -6434,7 +6414,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>-1.4665909170600802</v>
+        <v>-1.468128171530616</v>
       </c>
     </row>
     <row r="794">
@@ -6442,7 +6422,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>-1.4704180662579565</v>
+        <v>-1.4719710082359718</v>
       </c>
     </row>
     <row r="795">
@@ -6450,7 +6430,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>-1.1054336404605738</v>
+        <v>-1.1065008910715215</v>
       </c>
     </row>
     <row r="796">
@@ -6458,7 +6438,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>-0.70408067247194073</v>
+        <v>-0.70490412175747175</v>
       </c>
     </row>
     <row r="797">
@@ -6466,7 +6446,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>-1.2823081815745756</v>
+        <v>-1.2835720567167084</v>
       </c>
     </row>
     <row r="798">
@@ -6474,7 +6454,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>-1.4331183271252819</v>
+        <v>-1.4345082502670867</v>
       </c>
     </row>
     <row r="799">
@@ -6482,7 +6462,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>-1.6246559296894958</v>
+        <v>-1.6262427209842176</v>
       </c>
     </row>
     <row r="800">
@@ -6490,7 +6470,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>-1.6389617337265041</v>
+        <v>-1.6403532569851953</v>
       </c>
     </row>
     <row r="801">
@@ -6498,7 +6478,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>-1.3997278465364902</v>
+        <v>-1.4009991387416691</v>
       </c>
     </row>
     <row r="802">
@@ -6506,7 +6486,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>-1.4014550950937061</v>
+        <v>-1.4027397931863121</v>
       </c>
     </row>
     <row r="803">
@@ -6514,7 +6494,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>-1.015166455807712</v>
+        <v>-1.016155771597969</v>
       </c>
     </row>
     <row r="804">
@@ -6522,7 +6502,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>-0.59672550703616378</v>
+        <v>-0.59778087630808907</v>
       </c>
     </row>
     <row r="805">
@@ -6530,7 +6510,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>-0.2090304951912659</v>
+        <v>-0.2100983891322995</v>
       </c>
     </row>
     <row r="806">
@@ -6538,7 +6518,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>-1.2957554323360758</v>
+        <v>-1.2970275002501488</v>
       </c>
     </row>
     <row r="807">
@@ -6546,7 +6526,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>-1.4450139166014246</v>
+        <v>-1.4464053068657503</v>
       </c>
     </row>
     <row r="808">
@@ -6554,7 +6534,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>-1.6406786375374007</v>
+        <v>-1.6422737619726424</v>
       </c>
     </row>
     <row r="809">
@@ -6562,7 +6542,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>-1.6538489305795645</v>
+        <v>-1.6552469707452087</v>
       </c>
     </row>
     <row r="810">
@@ -6570,7 +6550,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>-1.4060941886769402</v>
+        <v>-1.4073645218209241</v>
       </c>
     </row>
     <row r="811">
@@ -6578,7 +6558,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>-1.4103427376568234</v>
+        <v>-1.4116326582267535</v>
       </c>
     </row>
     <row r="812">
@@ -6586,7 +6566,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>-1.0214815151766456</v>
+        <v>-1.0224761689592086</v>
       </c>
     </row>
     <row r="813">
@@ -6594,7 +6574,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>-0.59983438330957228</v>
+        <v>-0.60089122061580413</v>
       </c>
     </row>
     <row r="814">
@@ -6602,7 +6582,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>-0.2192209616832792</v>
+        <v>-0.22029970630311871</v>
       </c>
     </row>
     <row r="815">
@@ -6610,7 +6590,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>-1.2652705118815566</v>
+        <v>-1.2656587525120704</v>
       </c>
     </row>
     <row r="816">
@@ -6618,7 +6598,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>-1.4958281783150977</v>
+        <v>-1.4964990306865422</v>
       </c>
     </row>
     <row r="817">
@@ -6626,7 +6606,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>-1.6630430491192665</v>
+        <v>-1.6640285606115865</v>
       </c>
     </row>
     <row r="818">
@@ -6634,7 +6614,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>-1.6790199352906665</v>
+        <v>-1.6799184190422254</v>
       </c>
     </row>
     <row r="819">
@@ -6642,7 +6622,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>-1.3801327246856292</v>
+        <v>-1.3809209143435701</v>
       </c>
     </row>
     <row r="820">
@@ -6650,7 +6630,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>-1.3852336862815928</v>
+        <v>-1.38603557442486</v>
       </c>
     </row>
     <row r="821">
@@ -6658,7 +6638,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>-0.94978218774979661</v>
+        <v>-0.9505362694526085</v>
       </c>
     </row>
     <row r="822">
@@ -6666,7 +6646,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>-0.48911988048456784</v>
+        <v>-0.4900673227220344</v>
       </c>
     </row>
     <row r="823">
@@ -6674,7 +6654,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>-0.12472713397699306</v>
+        <v>-0.12585160158625058</v>
       </c>
     </row>
     <row r="824">
@@ -6682,7 +6662,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>0.073678598901548112</v>
+        <v>0.072362046607271927</v>
       </c>
     </row>
     <row r="825">
@@ -6690,7 +6670,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>-1.39603564920683</v>
+        <v>-1.395850889960609</v>
       </c>
     </row>
     <row r="826">
@@ -6698,7 +6678,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>-1.674052804392598</v>
+        <v>-1.6739055455118172</v>
       </c>
     </row>
     <row r="827">
@@ -6706,7 +6686,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>-1.8014683898553476</v>
+        <v>-1.8017271301461013</v>
       </c>
     </row>
     <row r="828">
@@ -6714,7 +6694,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>-1.7215731254587829</v>
+        <v>-1.7219048831134052</v>
       </c>
     </row>
     <row r="829">
@@ -6722,7 +6702,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>-1.4275351993834999</v>
+        <v>-1.4280032518161307</v>
       </c>
     </row>
     <row r="830">
@@ -6730,7 +6710,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>-1.4297898345490037</v>
+        <v>-1.430265657362408</v>
       </c>
     </row>
     <row r="831">
@@ -6738,7 +6718,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>-0.93329769411720542</v>
+        <v>-0.93378051762271952</v>
       </c>
     </row>
     <row r="832">
@@ -6746,7 +6726,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>-0.47396464528523974</v>
+        <v>-0.47456139802168229</v>
       </c>
     </row>
     <row r="833">
@@ -6754,7 +6734,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>-0.15151671073387968</v>
+        <v>-0.15243108596823404</v>
       </c>
     </row>
     <row r="834">
@@ -6762,7 +6742,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>0.062296471346877588</v>
+        <v>0.061056925071379733</v>
       </c>
     </row>
     <row r="835">
@@ -6770,7 +6750,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>-1.7583311972632025</v>
+        <v>-1.7576318111698954</v>
       </c>
     </row>
     <row r="836">
@@ -6778,7 +6758,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>-1.9160466319637828</v>
+        <v>-1.9155693798251441</v>
       </c>
     </row>
     <row r="837">
@@ -6786,7 +6766,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>-1.9413367957898944</v>
+        <v>-1.941013151755171</v>
       </c>
     </row>
     <row r="838">
@@ -6794,7 +6774,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>-1.8037109659116</v>
+        <v>-1.8035057630792328</v>
       </c>
     </row>
     <row r="839">
@@ -6802,7 +6782,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>-1.493619305777325</v>
+        <v>-1.4935554593209566</v>
       </c>
     </row>
     <row r="840">
@@ -6810,7 +6790,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>-1.4955177862730697</v>
+        <v>-1.4954605399535763</v>
       </c>
     </row>
     <row r="841">
@@ -6818,7 +6798,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>-1.0183924132180258</v>
+        <v>-1.0183203952198401</v>
       </c>
     </row>
     <row r="842">
@@ -6826,7 +6806,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>-0.549071587438687</v>
+        <v>-0.54934549496415497</v>
       </c>
     </row>
     <row r="843">
@@ -6834,7 +6814,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>-0.28389831352078532</v>
+        <v>-0.28461096338532921</v>
       </c>
     </row>
     <row r="844">
@@ -6842,7 +6822,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>-0.047581539382454664</v>
+        <v>-0.048567506679070789</v>
       </c>
     </row>
     <row r="845">
@@ -6850,7 +6830,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>-2.0683662011899906</v>
+        <v>-2.0671318967284598</v>
       </c>
     </row>
     <row r="846">
@@ -6858,7 +6838,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>-2.1614971695831593</v>
+        <v>-2.1605075767400916</v>
       </c>
     </row>
     <row r="847">
@@ -6866,7 +6846,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>-2.1272447929317173</v>
+        <v>-2.1264461295470798</v>
       </c>
     </row>
     <row r="848">
@@ -6874,7 +6854,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>-1.9383281504226659</v>
+        <v>-1.9375463084590239</v>
       </c>
     </row>
     <row r="849">
@@ -6882,7 +6862,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>-1.6133480084177905</v>
+        <v>-1.6129897150351247</v>
       </c>
     </row>
     <row r="850">
@@ -6890,7 +6870,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>-1.6181542623115828</v>
+        <v>-1.6178021114534349</v>
       </c>
     </row>
     <row r="851">
@@ -6898,7 +6878,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>-1.1827193677146342</v>
+        <v>-1.1823415155714749</v>
       </c>
     </row>
     <row r="852">
@@ -6906,7 +6886,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>-0.73664698631960346</v>
+        <v>-0.7366919525697907</v>
       </c>
     </row>
     <row r="853">
@@ -6914,7 +6894,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>-0.42923982285374901</v>
+        <v>-0.42957270905572231</v>
       </c>
     </row>
     <row r="854">
@@ -6922,7 +6902,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>-0.19500889727444332</v>
+        <v>-0.19554145329658923</v>
       </c>
     </row>
     <row r="855">
@@ -6930,7 +6910,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>-2.2362152097718839</v>
+        <v>-2.2345704786542568</v>
       </c>
     </row>
     <row r="856">
@@ -6938,7 +6918,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>-2.2846382466519533</v>
+        <v>-2.2831388790011706</v>
       </c>
     </row>
     <row r="857">
@@ -6946,7 +6926,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>-2.19499218577685</v>
+        <v>-2.1936480346395903</v>
       </c>
     </row>
     <row r="858">
@@ -6954,7 +6934,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>-1.9565498607619733</v>
+        <v>-1.9553690787356137</v>
       </c>
     </row>
     <row r="859">
@@ -6962,7 +6942,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>-1.6512468939901457</v>
+        <v>-1.6503388287578105</v>
       </c>
     </row>
     <row r="860">
@@ -6970,7 +6950,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>-1.6529169180032728</v>
+        <v>-1.6520091463415334</v>
       </c>
     </row>
     <row r="861">
@@ -6978,7 +6958,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>-1.2599681686166353</v>
+        <v>-1.2590546105852147</v>
       </c>
     </row>
     <row r="862">
@@ -6986,7 +6966,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>-0.79674648741399012</v>
+        <v>-0.7962037784820194</v>
       </c>
     </row>
     <row r="863">
@@ -6994,7 +6974,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>-0.47860620972716167</v>
+        <v>-0.47829807116997686</v>
       </c>
     </row>
     <row r="864">
@@ -7002,7 +6982,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>-0.34254557556404791</v>
+        <v>-0.34259354433207584</v>
       </c>
     </row>
     <row r="865">
@@ -7010,7 +6990,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>-2.2926470304540043</v>
+        <v>-2.2907389352039065</v>
       </c>
     </row>
     <row r="866">
@@ -7018,7 +6998,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>-2.2989717150108642</v>
+        <v>-2.2971101239085878</v>
       </c>
     </row>
     <row r="867">
@@ -7026,7 +7006,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>-2.1790928912884708</v>
+        <v>-2.1772394820002341</v>
       </c>
     </row>
     <row r="868">
@@ -7034,7 +7014,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>-1.930784329912073</v>
+        <v>-1.9290964941768372</v>
       </c>
     </row>
     <row r="869">
@@ -7042,7 +7022,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>-1.6353398039991072</v>
+        <v>-1.6340240712773784</v>
       </c>
     </row>
     <row r="870">
@@ -7050,7 +7030,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>-1.6348622380908686</v>
+        <v>-1.6335464982474504</v>
       </c>
     </row>
     <row r="871">
@@ -7058,7 +7038,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>-1.2539966655017885</v>
+        <v>-1.2529791894096551</v>
       </c>
     </row>
     <row r="872">
@@ -7066,7 +7046,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>-0.86381180957406922</v>
+        <v>-0.86299640421454338</v>
       </c>
     </row>
     <row r="873">
@@ -7074,7 +7054,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>-0.58681596631808475</v>
+        <v>-0.58620548534320083</v>
       </c>
     </row>
     <row r="874">
@@ -7082,7 +7062,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>-0.51632407436053462</v>
+        <v>-0.51590425254597161</v>
       </c>
     </row>
     <row r="875">
@@ -7090,7 +7070,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>-2.0858070483736455</v>
+        <v>-2.0874323702120607</v>
       </c>
     </row>
     <row r="876">
@@ -7098,7 +7078,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>-1.8606957418753967</v>
+        <v>-1.8620562803836531</v>
       </c>
     </row>
     <row r="877">
@@ -7106,7 +7086,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>-1.8730450647840637</v>
+        <v>-1.8744272008147609</v>
       </c>
     </row>
     <row r="878">
@@ -7114,7 +7094,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>-1.4640970404617271</v>
+        <v>-1.4653821767868733</v>
       </c>
     </row>
     <row r="879">
@@ -7122,7 +7102,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>-2.0851184591771474</v>
+        <v>-2.0866765727053687</v>
       </c>
     </row>
     <row r="880">
@@ -7130,7 +7110,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>-2.0917627178876597</v>
+        <v>-2.0933907211426117</v>
       </c>
     </row>
     <row r="881">
@@ -7138,7 +7118,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>-1.8704296601910801</v>
+        <v>-1.8717959265637287</v>
       </c>
     </row>
     <row r="882">
@@ -7146,7 +7126,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>-1.8774509352687705</v>
+        <v>-1.8788325902593521</v>
       </c>
     </row>
     <row r="883">
@@ -7154,7 +7134,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>-1.4687834025563828</v>
+        <v>-1.4700721655251838</v>
       </c>
     </row>
     <row r="884">
@@ -7162,7 +7142,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>-0.9804329831757137</v>
+        <v>-0.98160009828268568</v>
       </c>
     </row>
     <row r="885">
@@ -7170,7 +7150,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>-1.9504050436793101</v>
+        <v>-1.9509892441155305</v>
       </c>
     </row>
     <row r="886">
@@ -7178,7 +7158,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>-2.146310019720866</v>
+        <v>-2.1471954000460203</v>
       </c>
     </row>
     <row r="887">
@@ -7186,7 +7166,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>-2.1587068140382439</v>
+        <v>-2.1597164531602129</v>
       </c>
     </row>
     <row r="888">
@@ -7194,7 +7174,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>-1.9146190641884229</v>
+        <v>-1.9156084142781515</v>
       </c>
     </row>
     <row r="889">
@@ -7202,7 +7182,7 @@
         <v>888</v>
       </c>
       <c r="B889">
-        <v>-1.9255879595174814</v>
+        <v>-1.9265935404162073</v>
       </c>
     </row>
     <row r="890">
@@ -7210,7 +7190,7 @@
         <v>889</v>
       </c>
       <c r="B890">
-        <v>-1.4705088620501086</v>
+        <v>-1.4714337258301711</v>
       </c>
     </row>
     <row r="891">
@@ -7218,7 +7198,7 @@
         <v>890</v>
       </c>
       <c r="B891">
-        <v>-0.90666796294855756</v>
+        <v>-0.907861123178898</v>
       </c>
     </row>
     <row r="892">
@@ -7226,7 +7206,7 @@
         <v>891</v>
       </c>
       <c r="B892">
-        <v>-1.7811761221759268</v>
+        <v>-1.7809635424088164</v>
       </c>
     </row>
     <row r="893">
@@ -7234,7 +7214,7 @@
         <v>892</v>
       </c>
       <c r="B893">
-        <v>-2.0867610875546529</v>
+        <v>-2.0867122542476824</v>
       </c>
     </row>
     <row r="894">
@@ -7242,7 +7222,7 @@
         <v>893</v>
       </c>
       <c r="B894">
-        <v>-2.215569598187618</v>
+        <v>-2.2159107815944719</v>
       </c>
     </row>
     <row r="895">
@@ -7250,7 +7230,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>-2.1709122452896241</v>
+        <v>-2.1713896794874077</v>
       </c>
     </row>
     <row r="896">
@@ -7258,7 +7238,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>-1.9278470340086953</v>
+        <v>-1.9284679840837564</v>
       </c>
     </row>
     <row r="897">
@@ -7266,7 +7246,7 @@
         <v>896</v>
       </c>
       <c r="B897">
-        <v>-1.935337938401418</v>
+        <v>-1.9359702767190725</v>
       </c>
     </row>
     <row r="898">
@@ -7274,7 +7254,7 @@
         <v>897</v>
       </c>
       <c r="B898">
-        <v>-1.4712732748933672</v>
+        <v>-1.4718807362236044</v>
       </c>
     </row>
     <row r="899">
@@ -7282,7 +7262,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>-0.91795519478521437</v>
+        <v>-0.91872751440858802</v>
       </c>
     </row>
     <row r="900">
@@ -7290,7 +7270,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>-1.9803236427584148</v>
+        <v>-1.9795211027162474</v>
       </c>
     </row>
     <row r="901">
@@ -7298,7 +7278,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>-2.1845151256366875</v>
+        <v>-2.183901043431042</v>
       </c>
     </row>
     <row r="902">
@@ -7306,7 +7286,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>-2.2638372644431324</v>
+        <v>-2.263704336241497</v>
       </c>
     </row>
     <row r="903">
@@ -7314,7 +7294,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>-2.1674517834901836</v>
+        <v>-2.1673778299889177</v>
       </c>
     </row>
     <row r="904">
@@ -7322,7 +7302,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>-1.9390740852842432</v>
+        <v>-1.9391733127965032</v>
       </c>
     </row>
     <row r="905">
@@ -7330,7 +7310,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>-1.944433354421546</v>
+        <v>-1.9445417202588626</v>
       </c>
     </row>
     <row r="906">
@@ -7338,7 +7318,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>-1.5405345628831719</v>
+        <v>-1.5408955810464373</v>
       </c>
     </row>
     <row r="907">
@@ -7346,7 +7326,7 @@
         <v>906</v>
       </c>
       <c r="B907">
-        <v>-1.0343233996094632</v>
+        <v>-1.0348226591422565</v>
       </c>
     </row>
     <row r="908">
@@ -7354,7 +7334,7 @@
         <v>907</v>
       </c>
       <c r="B908">
-        <v>-2.2087953809786307</v>
+        <v>-2.207478784718115</v>
       </c>
     </row>
     <row r="909">
@@ -7362,7 +7342,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>-2.334010560227032</v>
+        <v>-2.3329928891053737</v>
       </c>
     </row>
     <row r="910">
@@ -7370,7 +7350,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>-2.330828389935097</v>
+        <v>-2.3298488666560324</v>
       </c>
     </row>
     <row r="911">
@@ -7378,7 +7358,7 @@
         <v>910</v>
       </c>
       <c r="B911">
-        <v>-2.2147581082320249</v>
+        <v>-2.2140660674850423</v>
       </c>
     </row>
     <row r="912">
@@ -7386,7 +7366,7 @@
         <v>911</v>
       </c>
       <c r="B912">
-        <v>-1.9357776379141398</v>
+        <v>-1.9353787877298345</v>
       </c>
     </row>
     <row r="913">
@@ -7394,7 +7374,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>-1.93749499256859</v>
+        <v>-1.9370999409222989</v>
       </c>
     </row>
     <row r="914">
@@ -7402,7 +7382,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>-1.5830379909074996</v>
+        <v>-1.5827918479784264</v>
       </c>
     </row>
     <row r="915">
@@ -7410,7 +7390,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>-1.1171294964758016</v>
+        <v>-1.1171697024921861</v>
       </c>
     </row>
     <row r="916">
@@ -7418,7 +7398,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>-0.75249376910578336</v>
+        <v>-0.75279619377682216</v>
       </c>
     </row>
     <row r="917">
@@ -7426,7 +7406,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>-2.3266722169835687</v>
+        <v>-2.3252241949529382</v>
       </c>
     </row>
     <row r="918">
@@ -7434,7 +7414,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>-2.1093463255754807</v>
+        <v>-2.1082345468786921</v>
       </c>
     </row>
     <row r="919">
@@ -7442,7 +7422,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>-1.8853497691482737</v>
+        <v>-1.8844657535907101</v>
       </c>
     </row>
     <row r="920">
@@ -7450,7 +7430,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>-1.8824041755012366</v>
+        <v>-1.8815176850364395</v>
       </c>
     </row>
     <row r="921">
@@ -7458,7 +7438,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>-1.5743391529944488</v>
+        <v>-1.5736780265151928</v>
       </c>
     </row>
     <row r="922">
@@ -7466,7 +7446,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>-1.1836779698856816</v>
+        <v>-1.1832093451232422</v>
       </c>
     </row>
   </sheetData>
